--- a/Output/AllModels_sensitivitySupport_12000.xlsx
+++ b/Output/AllModels_sensitivitySupport_12000.xlsx
@@ -1,1405 +1,1412 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kueng\DataAnalysis\02TimeAndTiesControl_updatedBRMS\Output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34689D75-38DB-4B0C-BB5B-6304BBE17706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-19303" yWindow="3369" windowWidth="19406" windowHeight="11485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="460">
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Subjective MVPA Hurdle Lognormal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Device-Based MVPA Log (Gaussian)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mood Gaussian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reactance Ordinal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reactance Dichotome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp(Est.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95% CI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Est.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intercept</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.76***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[31.90, 42.19]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112.02***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[100.66, 124.90]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 3.48, 3.90]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.33**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.17,   0.64]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hurdle Intercept</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.27***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.20,  0.38]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conditional Within-Person Effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily persuasion experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.94,  1.05]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.98,   1.04]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.08, 0.00]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   0.76,     1.09]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.73,   1.11]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.830</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily persuasion utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.96,  1.05]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.05, 0.04]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   0.91,     1.38]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.89,   1.74]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily pressure experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.83,  1.01]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.89,   1.01]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.14, 0.07]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   1.16,     2.67]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1.01,   4.31]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily pressure utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.87,  1.03]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.92,   1.05]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.14, 0.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   0.66,     2.01]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.53,   4.04]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily pushing experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.90,  1.03]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.96,   1.06]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.07, 0.05]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   1.01,     1.62]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.980</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1.07,   1.85]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily pushing utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.89,  1.01]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.95,   1.04]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.01, 0.13]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   0.73,     1.25]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.63,   1.43]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Own actionplan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.24,  1.48]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  1.01,   1.11]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.09*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.01, 0.16]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   0.51,     1.61]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.630</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.49,   1.78]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partner actionplan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.96,  1.13]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.99,   1.09]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.13, 0.02]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   0.59,     1.64]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.52,   1.68]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.88,  1.12]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.91,   1.05]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.26***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.16, 0.37]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   0.72,     2.82]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.70,   3.38]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily weartime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  1.00,   1.00]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily support received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.05,  1.10]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  1.02,   1.06]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.08***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.05, 0.11]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.82**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   0.70,     0.94]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.83*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.70,   0.97]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily support provided (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.02,  1.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.99,   1.03]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.04*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.01, 0.07]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   0.74,     1.00]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.73,   1.02]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is a Weekend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JITAI received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Days post skilled support intervention</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conditional Between-Person Effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean persuasion experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.68,  1.28]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.670</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.79,   1.40]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.32, 0.83]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   0.45,     3.87]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.66,   8.28]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean persuasion utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.73,  1.36]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.73,   1.30]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.26, 0.90]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   0.43,     4.88]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.52,   8.94]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.850</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean pressure experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.89,  1.80]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.910</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.77,   1.40]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.83, 0.29]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   1.16,    10.81]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.64**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[2.66, 204.01]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean pressure utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.65,  1.33]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.73,   1.28]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.91, 0.21]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   0.39,     4.10]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.24,  23.56]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean pushing experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.73,  1.87]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.58,   1.41]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.64, 1.04]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   0.35,     9.34]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.17,  11.18]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean pushing utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.67,  1.77]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.72,   1.72]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.69, 0.99]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   0.02,     0.87]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.10*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01,   0.95]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean weartime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean support received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.02,  1.23]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.99,   1.16]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.00, 0.31]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   0.39,     1.23]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.37,   1.42]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean support provided (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.89,  1.06]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.92,   1.09]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.24, 0.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   0.56,     1.37]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.46,   1.33]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Difference study group 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Difference study group 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hurdle Within-Person Effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Daily persuasion experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.06,  1.40]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Daily persuasion utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.95,  1.25]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Daily pressure experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.65,  1.28]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Daily pressure utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.09,  2.70]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Daily pushing experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.63,  1.15]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.880</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Daily pushing utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.95,  1.51]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Own actionplan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 7.95, 12.05]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Partner actionplan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.83,  1.25]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.68,  1.25]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Daily weartime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Daily support received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.55,  1.87]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Daily support provided (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.28,  1.52]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Is a Weekend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu JITAI received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Days post skilled support intervention</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hurdle Between-Person Effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Mean persuasion experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.60,  2.81]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Mean persuasion utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.53,  2.44]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Mean pressure experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.14,  0.83]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Mean pressure utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.25,  1.41]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Mean pushing experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.19,  2.02]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Mean pushing utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.41,  4.24]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Mean weartime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Mean support received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.01,  1.65]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Mean support provided (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.09,  1.79]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Difference study group 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Difference study group 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Random Effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Intercept)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.24, 0.41]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.23, 0.39]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.48, 0.79]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.47, 1.33]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.77, 1.86]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Hurdle Intercept)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.58, 1.03]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily persuasion experienced)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.07, 0.16]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 0.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.10]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.46]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 0.57]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily persuasion utilized (partner's view))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.04, 0.13]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 0.09]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.12]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.55]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.14, 1.04]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily pressure experienced)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.21]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.13]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.25]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.08, 1.15]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.09, 2.33]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily pressure utilized (partner's view))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.17]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.11]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.26]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 1.55]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.04, 2.73]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily pushing experienced)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.16]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.14]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.14]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 0.55]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 0.64]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily pushing utilized (partner's view))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.15]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.15]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.60]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 1.01]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Hu Daily persuasion experienced)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.36]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Hu Daily persuasion utilized (partner's view))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.39]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Hu Daily pressure experienced)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.81]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Hu Daily pressure utilized (partner's view))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 1.10]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Hu Daily pushing experienced)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.26, 0.97]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Hu Daily pushing utilized (partner's view))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.52]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Additional Parameters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sigma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.64, 0.69]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.56, 0.59]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.93, 0.97]</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="460">
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Subjective MVPA Hurdle Lognormal</t>
+  </si>
+  <si>
+    <t>Device-Based MVPA Log (Gaussian)</t>
+  </si>
+  <si>
+    <t>Mood Gaussian</t>
+  </si>
+  <si>
+    <t>Reactance Ordinal</t>
+  </si>
+  <si>
+    <t>Reactance Dichotome</t>
+  </si>
+  <si>
+    <t>exp(Est.)</t>
+  </si>
+  <si>
+    <t>95% CI</t>
+  </si>
+  <si>
+    <t>pd</t>
+  </si>
+  <si>
+    <t>Est.</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>36.76***</t>
+  </si>
+  <si>
+    <t>[31.90, 42.19]</t>
+  </si>
+  <si>
+    <t>1.000</t>
+  </si>
+  <si>
+    <t>112.02***</t>
+  </si>
+  <si>
+    <t>[100.66, 124.90]</t>
+  </si>
+  <si>
+    <t>3.69***</t>
+  </si>
+  <si>
+    <t>[ 3.48, 3.90]</t>
+  </si>
+  <si>
+    <t>0.33**</t>
+  </si>
+  <si>
+    <t>[0.17,   0.64]</t>
+  </si>
+  <si>
+    <t>0.999</t>
+  </si>
+  <si>
+    <t>Hurdle Intercept</t>
+  </si>
+  <si>
+    <t>0.27***</t>
+  </si>
+  <si>
+    <t>[ 0.20,  0.38]</t>
+  </si>
+  <si>
+    <t>Conditional Within-Person Effects</t>
+  </si>
+  <si>
+    <t>Daily persuasion experienced</t>
+  </si>
+  <si>
+    <t>0.99</t>
+  </si>
+  <si>
+    <t>[ 0.94,  1.05]</t>
+  </si>
+  <si>
+    <t>0.611</t>
+  </si>
+  <si>
+    <t>1.01</t>
+  </si>
+  <si>
+    <t>[  0.98,   1.04]</t>
+  </si>
+  <si>
+    <t>0.693</t>
+  </si>
+  <si>
+    <t>-0.04</t>
+  </si>
+  <si>
+    <t>[-0.08, 0.00]</t>
+  </si>
+  <si>
+    <t>0.966</t>
+  </si>
+  <si>
+    <t>0.91</t>
+  </si>
+  <si>
+    <t>[   0.76,     1.09]</t>
+  </si>
+  <si>
+    <t>0.845</t>
+  </si>
+  <si>
+    <t>[0.73,   1.11]</t>
+  </si>
+  <si>
+    <t>0.830</t>
+  </si>
+  <si>
+    <t>Daily persuasion utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>1.00</t>
+  </si>
+  <si>
+    <t>[ 0.96,  1.05]</t>
+  </si>
+  <si>
+    <t>0.543</t>
+  </si>
+  <si>
+    <t>0.678</t>
+  </si>
+  <si>
+    <t>-0.01</t>
+  </si>
+  <si>
+    <t>[-0.05, 0.04]</t>
+  </si>
+  <si>
+    <t>0.593</t>
+  </si>
+  <si>
+    <t>1.12</t>
+  </si>
+  <si>
+    <t>[   0.91,     1.38]</t>
+  </si>
+  <si>
+    <t>0.862</t>
+  </si>
+  <si>
+    <t>1.23</t>
+  </si>
+  <si>
+    <t>[0.89,   1.74]</t>
+  </si>
+  <si>
+    <t>0.903</t>
+  </si>
+  <si>
+    <t>Daily pressure experienced</t>
+  </si>
+  <si>
+    <t>0.92</t>
+  </si>
+  <si>
+    <t>[ 0.83,  1.01]</t>
+  </si>
+  <si>
+    <t>0.963</t>
+  </si>
+  <si>
+    <t>0.95</t>
+  </si>
+  <si>
+    <t>[  0.89,   1.01]</t>
+  </si>
+  <si>
+    <t>0.941</t>
+  </si>
+  <si>
+    <t>-0.03</t>
+  </si>
+  <si>
+    <t>[-0.14, 0.07]</t>
+  </si>
+  <si>
+    <t>0.729</t>
+  </si>
+  <si>
+    <t>1.85*</t>
+  </si>
+  <si>
+    <t>[   1.16,     2.67]</t>
+  </si>
+  <si>
+    <t>0.992</t>
+  </si>
+  <si>
+    <t>1.96*</t>
+  </si>
+  <si>
+    <t>[1.01,   4.31]</t>
+  </si>
+  <si>
+    <t>0.976</t>
+  </si>
+  <si>
+    <t>Daily pressure utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>[ 0.87,  1.03]</t>
+  </si>
+  <si>
+    <t>0.884</t>
+  </si>
+  <si>
+    <t>0.98</t>
+  </si>
+  <si>
+    <t>[  0.92,   1.05]</t>
+  </si>
+  <si>
+    <t>0.726</t>
+  </si>
+  <si>
+    <t>-0.02</t>
+  </si>
+  <si>
+    <t>[-0.14, 0.08]</t>
+  </si>
+  <si>
+    <t>0.661</t>
+  </si>
+  <si>
+    <t>1.18</t>
+  </si>
+  <si>
+    <t>[   0.66,     2.01]</t>
+  </si>
+  <si>
+    <t>0.751</t>
+  </si>
+  <si>
+    <t>1.32</t>
+  </si>
+  <si>
+    <t>[0.53,   4.04]</t>
+  </si>
+  <si>
+    <t>0.745</t>
+  </si>
+  <si>
+    <t>Daily pushing experienced</t>
+  </si>
+  <si>
+    <t>0.97</t>
+  </si>
+  <si>
+    <t>[ 0.90,  1.03]</t>
+  </si>
+  <si>
+    <t>0.863</t>
+  </si>
+  <si>
+    <t>[  0.96,   1.06]</t>
+  </si>
+  <si>
+    <t>0.598</t>
+  </si>
+  <si>
+    <t>[-0.07, 0.05]</t>
+  </si>
+  <si>
+    <t>0.642</t>
+  </si>
+  <si>
+    <t>1.27*</t>
+  </si>
+  <si>
+    <t>[   1.01,     1.62]</t>
+  </si>
+  <si>
+    <t>0.980</t>
+  </si>
+  <si>
+    <t>1.40*</t>
+  </si>
+  <si>
+    <t>[1.07,   1.85]</t>
+  </si>
+  <si>
+    <t>0.993</t>
+  </si>
+  <si>
+    <t>Daily pushing utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>[ 0.89,  1.01]</t>
+  </si>
+  <si>
+    <t>0.956</t>
+  </si>
+  <si>
+    <t>[  0.95,   1.04]</t>
+  </si>
+  <si>
+    <t>0.597</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>[-0.01, 0.13]</t>
+  </si>
+  <si>
+    <t>0.958</t>
+  </si>
+  <si>
+    <t>[   0.73,     1.25]</t>
+  </si>
+  <si>
+    <t>0.639</t>
+  </si>
+  <si>
+    <t>[0.63,   1.43]</t>
+  </si>
+  <si>
+    <t>0.601</t>
+  </si>
+  <si>
+    <t>Own actionplan</t>
+  </si>
+  <si>
+    <t>1.35***</t>
+  </si>
+  <si>
+    <t>[ 1.24,  1.48]</t>
+  </si>
+  <si>
+    <t>1.06*</t>
+  </si>
+  <si>
+    <t>[  1.01,   1.11]</t>
+  </si>
+  <si>
+    <t>0.987</t>
+  </si>
+  <si>
+    <t>0.09*</t>
+  </si>
+  <si>
+    <t>[ 0.01, 0.16]</t>
+  </si>
+  <si>
+    <t>0.986</t>
+  </si>
+  <si>
+    <t>[   0.51,     1.61]</t>
+  </si>
+  <si>
+    <t>0.630</t>
+  </si>
+  <si>
+    <t>0.94</t>
+  </si>
+  <si>
+    <t>[0.49,   1.78]</t>
+  </si>
+  <si>
+    <t>0.577</t>
+  </si>
+  <si>
+    <t>Partner actionplan</t>
+  </si>
+  <si>
+    <t>1.04</t>
+  </si>
+  <si>
+    <t>[ 0.96,  1.13]</t>
+  </si>
+  <si>
+    <t>0.843</t>
+  </si>
+  <si>
+    <t>[  0.99,   1.09]</t>
+  </si>
+  <si>
+    <t>0.924</t>
+  </si>
+  <si>
+    <t>-0.06</t>
+  </si>
+  <si>
+    <t>[-0.13, 0.02]</t>
+  </si>
+  <si>
+    <t>0.935</t>
+  </si>
+  <si>
+    <t>[   0.59,     1.64]</t>
+  </si>
+  <si>
+    <t>0.541</t>
+  </si>
+  <si>
+    <t>0.93</t>
+  </si>
+  <si>
+    <t>[0.52,   1.68]</t>
+  </si>
+  <si>
+    <t>0.596</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>[ 0.88,  1.12]</t>
+  </si>
+  <si>
+    <t>0.528</t>
+  </si>
+  <si>
+    <t>[  0.91,   1.05]</t>
+  </si>
+  <si>
+    <t>0.768</t>
+  </si>
+  <si>
+    <t>0.26***</t>
+  </si>
+  <si>
+    <t>[ 0.16, 0.37]</t>
+  </si>
+  <si>
+    <t>1.42</t>
+  </si>
+  <si>
+    <t>[   0.72,     2.82]</t>
+  </si>
+  <si>
+    <t>1.54</t>
+  </si>
+  <si>
+    <t>[0.70,   3.38]</t>
+  </si>
+  <si>
+    <t>0.861</t>
+  </si>
+  <si>
+    <t>Daily weartime</t>
+  </si>
+  <si>
+    <t>1.00***</t>
+  </si>
+  <si>
+    <t>[  1.00,   1.00]</t>
+  </si>
+  <si>
+    <t>Daily support received</t>
+  </si>
+  <si>
+    <t>1.07***</t>
+  </si>
+  <si>
+    <t>[ 1.05,  1.10]</t>
+  </si>
+  <si>
+    <t>1.04***</t>
+  </si>
+  <si>
+    <t>[  1.02,   1.06]</t>
+  </si>
+  <si>
+    <t>0.08***</t>
+  </si>
+  <si>
+    <t>[ 0.05, 0.11]</t>
+  </si>
+  <si>
+    <t>0.82**</t>
+  </si>
+  <si>
+    <t>[   0.70,     0.94]</t>
+  </si>
+  <si>
+    <t>0.997</t>
+  </si>
+  <si>
+    <t>0.83*</t>
+  </si>
+  <si>
+    <t>[0.70,   0.97]</t>
+  </si>
+  <si>
+    <t>0.989</t>
+  </si>
+  <si>
+    <t>Daily support provided (partner's view)</t>
+  </si>
+  <si>
+    <t>1.05***</t>
+  </si>
+  <si>
+    <t>[ 1.02,  1.08]</t>
+  </si>
+  <si>
+    <t>[  0.99,   1.03]</t>
+  </si>
+  <si>
+    <t>0.906</t>
+  </si>
+  <si>
+    <t>0.04*</t>
+  </si>
+  <si>
+    <t>[ 0.01, 0.07]</t>
+  </si>
+  <si>
+    <t>0.994</t>
+  </si>
+  <si>
+    <t>0.86</t>
+  </si>
+  <si>
+    <t>[   0.74,     1.00]</t>
+  </si>
+  <si>
+    <t>0.974</t>
+  </si>
+  <si>
+    <t>[0.73,   1.02]</t>
+  </si>
+  <si>
+    <t>0.957</t>
+  </si>
+  <si>
+    <t>Is a Weekend</t>
+  </si>
+  <si>
+    <t>JITAI received</t>
+  </si>
+  <si>
+    <t>Days post skilled support intervention</t>
+  </si>
+  <si>
+    <t>Conditional Between-Person Effects</t>
+  </si>
+  <si>
+    <t>Mean persuasion experienced</t>
+  </si>
+  <si>
+    <t>[ 0.68,  1.28]</t>
+  </si>
+  <si>
+    <t>0.670</t>
+  </si>
+  <si>
+    <t>1.05</t>
+  </si>
+  <si>
+    <t>[  0.79,   1.40]</t>
+  </si>
+  <si>
+    <t>0.643</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>[-0.32, 0.83]</t>
+  </si>
+  <si>
+    <t>0.809</t>
+  </si>
+  <si>
+    <t>[   0.45,     3.87]</t>
+  </si>
+  <si>
+    <t>0.696</t>
+  </si>
+  <si>
+    <t>2.26</t>
+  </si>
+  <si>
+    <t>[0.66,   8.28]</t>
+  </si>
+  <si>
+    <t>0.901</t>
+  </si>
+  <si>
+    <t>Mean persuasion utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>[ 0.73,  1.36]</t>
+  </si>
+  <si>
+    <t>0.529</t>
+  </si>
+  <si>
+    <t>[  0.73,   1.30]</t>
+  </si>
+  <si>
+    <t>0.571</t>
+  </si>
+  <si>
+    <t>0.32</t>
+  </si>
+  <si>
+    <t>[-0.26, 0.90]</t>
+  </si>
+  <si>
+    <t>0.869</t>
+  </si>
+  <si>
+    <t>1.40</t>
+  </si>
+  <si>
+    <t>[   0.43,     4.88]</t>
+  </si>
+  <si>
+    <t>0.708</t>
+  </si>
+  <si>
+    <t>2.08</t>
+  </si>
+  <si>
+    <t>[0.52,   8.94]</t>
+  </si>
+  <si>
+    <t>0.850</t>
+  </si>
+  <si>
+    <t>Mean pressure experienced</t>
+  </si>
+  <si>
+    <t>1.27</t>
+  </si>
+  <si>
+    <t>[ 0.89,  1.80]</t>
+  </si>
+  <si>
+    <t>0.910</t>
+  </si>
+  <si>
+    <t>[  0.77,   1.40]</t>
+  </si>
+  <si>
+    <t>-0.27</t>
+  </si>
+  <si>
+    <t>[-0.83, 0.29]</t>
+  </si>
+  <si>
+    <t>0.829</t>
+  </si>
+  <si>
+    <t>3.47*</t>
+  </si>
+  <si>
+    <t>[   1.16,    10.81]</t>
+  </si>
+  <si>
+    <t>20.64**</t>
+  </si>
+  <si>
+    <t>[2.66, 204.01]</t>
+  </si>
+  <si>
+    <t>0.998</t>
+  </si>
+  <si>
+    <t>Mean pressure utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>[ 0.65,  1.33]</t>
+  </si>
+  <si>
+    <t>[  0.73,   1.28]</t>
+  </si>
+  <si>
+    <t>-0.34</t>
+  </si>
+  <si>
+    <t>[-0.91, 0.21]</t>
+  </si>
+  <si>
+    <t>0.891</t>
+  </si>
+  <si>
+    <t>1.30</t>
+  </si>
+  <si>
+    <t>[   0.39,     4.10]</t>
+  </si>
+  <si>
+    <t>0.668</t>
+  </si>
+  <si>
+    <t>2.55</t>
+  </si>
+  <si>
+    <t>[0.24,  23.56]</t>
+  </si>
+  <si>
+    <t>0.784</t>
+  </si>
+  <si>
+    <t>Mean pushing experienced</t>
+  </si>
+  <si>
+    <t>1.16</t>
+  </si>
+  <si>
+    <t>[ 0.73,  1.87]</t>
+  </si>
+  <si>
+    <t>0.735</t>
+  </si>
+  <si>
+    <t>0.90</t>
+  </si>
+  <si>
+    <t>[  0.58,   1.41]</t>
+  </si>
+  <si>
+    <t>0.679</t>
+  </si>
+  <si>
+    <t>0.20</t>
+  </si>
+  <si>
+    <t>[-0.64, 1.04]</t>
+  </si>
+  <si>
+    <t>0.687</t>
+  </si>
+  <si>
+    <t>1.73</t>
+  </si>
+  <si>
+    <t>[   0.35,     9.34]</t>
+  </si>
+  <si>
+    <t>0.748</t>
+  </si>
+  <si>
+    <t>1.31</t>
+  </si>
+  <si>
+    <t>[0.17,  11.18]</t>
+  </si>
+  <si>
+    <t>0.600</t>
+  </si>
+  <si>
+    <t>Mean pushing utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>1.08</t>
+  </si>
+  <si>
+    <t>[ 0.67,  1.77]</t>
+  </si>
+  <si>
+    <t>0.631</t>
+  </si>
+  <si>
+    <t>1.11</t>
+  </si>
+  <si>
+    <t>[  0.72,   1.72]</t>
+  </si>
+  <si>
+    <t>0.681</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>[-0.69, 0.99]</t>
+  </si>
+  <si>
+    <t>0.13*</t>
+  </si>
+  <si>
+    <t>[   0.02,     0.87]</t>
+  </si>
+  <si>
+    <t>0.982</t>
+  </si>
+  <si>
+    <t>0.10*</t>
+  </si>
+  <si>
+    <t>[0.01,   0.95]</t>
+  </si>
+  <si>
+    <t>0.978</t>
+  </si>
+  <si>
+    <t>Mean weartime</t>
+  </si>
+  <si>
+    <t>0.932</t>
+  </si>
+  <si>
+    <t>Mean support received</t>
+  </si>
+  <si>
+    <t>1.12*</t>
+  </si>
+  <si>
+    <t>[ 1.02,  1.23]</t>
+  </si>
+  <si>
+    <t>1.07</t>
+  </si>
+  <si>
+    <t>[  0.99,   1.16]</t>
+  </si>
+  <si>
+    <t>0.948</t>
+  </si>
+  <si>
+    <t>[ 0.00, 0.31]</t>
+  </si>
+  <si>
+    <t>0.972</t>
+  </si>
+  <si>
+    <t>0.69</t>
+  </si>
+  <si>
+    <t>[   0.39,     1.23]</t>
+  </si>
+  <si>
+    <t>0.893</t>
+  </si>
+  <si>
+    <t>0.74</t>
+  </si>
+  <si>
+    <t>[0.37,   1.42]</t>
+  </si>
+  <si>
+    <t>0.817</t>
+  </si>
+  <si>
+    <t>Mean support provided (partner's view)</t>
+  </si>
+  <si>
+    <t>[ 0.89,  1.06]</t>
+  </si>
+  <si>
+    <t>0.741</t>
+  </si>
+  <si>
+    <t>[  0.92,   1.09]</t>
+  </si>
+  <si>
+    <t>0.547</t>
+  </si>
+  <si>
+    <t>-0.08</t>
+  </si>
+  <si>
+    <t>[-0.24, 0.08]</t>
+  </si>
+  <si>
+    <t>0.88</t>
+  </si>
+  <si>
+    <t>[   0.56,     1.37]</t>
+  </si>
+  <si>
+    <t>0.707</t>
+  </si>
+  <si>
+    <t>0.79</t>
+  </si>
+  <si>
+    <t>[0.46,   1.33]</t>
+  </si>
+  <si>
+    <t>0.812</t>
+  </si>
+  <si>
+    <t>Difference study group 2</t>
+  </si>
+  <si>
+    <t>Difference study group 3</t>
+  </si>
+  <si>
+    <t>Hurdle Within-Person Effects</t>
+  </si>
+  <si>
+    <t>Hu Daily persuasion experienced</t>
+  </si>
+  <si>
+    <t>1.21**</t>
+  </si>
+  <si>
+    <t>[ 1.06,  1.40]</t>
+  </si>
+  <si>
+    <t>Hu Daily persuasion utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>[ 0.95,  1.25]</t>
+  </si>
+  <si>
+    <t>0.885</t>
+  </si>
+  <si>
+    <t>Hu Daily pressure experienced</t>
+  </si>
+  <si>
+    <t>[ 0.65,  1.28]</t>
+  </si>
+  <si>
+    <t>0.716</t>
+  </si>
+  <si>
+    <t>Hu Daily pressure utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>1.63*</t>
+  </si>
+  <si>
+    <t>[ 1.09,  2.70]</t>
+  </si>
+  <si>
+    <t>0.991</t>
+  </si>
+  <si>
+    <t>Hu Daily pushing experienced</t>
+  </si>
+  <si>
+    <t>0.83</t>
+  </si>
+  <si>
+    <t>[ 0.63,  1.15]</t>
+  </si>
+  <si>
+    <t>0.880</t>
+  </si>
+  <si>
+    <t>Hu Daily pushing utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>[ 0.95,  1.51]</t>
+  </si>
+  <si>
+    <t>0.926</t>
+  </si>
+  <si>
+    <t>Hu Own actionplan</t>
+  </si>
+  <si>
+    <t>9.75***</t>
+  </si>
+  <si>
+    <t>[ 7.95, 12.05]</t>
+  </si>
+  <si>
+    <t>Hu Partner actionplan</t>
+  </si>
+  <si>
+    <t>1.02</t>
+  </si>
+  <si>
+    <t>[ 0.83,  1.25]</t>
+  </si>
+  <si>
+    <t>0.584</t>
+  </si>
+  <si>
+    <t>Hu Day</t>
+  </si>
+  <si>
+    <t>[ 0.68,  1.25]</t>
+  </si>
+  <si>
+    <t>Hu Daily weartime</t>
+  </si>
+  <si>
+    <t>Hu Daily support received</t>
+  </si>
+  <si>
+    <t>1.70***</t>
+  </si>
+  <si>
+    <t>[ 1.55,  1.87]</t>
+  </si>
+  <si>
+    <t>Hu Daily support provided (partner's view)</t>
+  </si>
+  <si>
+    <t>1.40***</t>
+  </si>
+  <si>
+    <t>[ 1.28,  1.52]</t>
+  </si>
+  <si>
+    <t>Hu Is a Weekend</t>
+  </si>
+  <si>
+    <t>Hu JITAI received</t>
+  </si>
+  <si>
+    <t>Hu Days post skilled support intervention</t>
+  </si>
+  <si>
+    <t>Hurdle Between-Person Effects</t>
+  </si>
+  <si>
+    <t>Hu Mean persuasion experienced</t>
+  </si>
+  <si>
+    <t>[ 0.60,  2.81]</t>
+  </si>
+  <si>
+    <t>0.756</t>
+  </si>
+  <si>
+    <t>Hu Mean persuasion utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>1.13</t>
+  </si>
+  <si>
+    <t>[ 0.53,  2.44]</t>
+  </si>
+  <si>
+    <t>0.628</t>
+  </si>
+  <si>
+    <t>Hu Mean pressure experienced</t>
+  </si>
+  <si>
+    <t>0.35*</t>
+  </si>
+  <si>
+    <t>[ 0.14,  0.83]</t>
+  </si>
+  <si>
+    <t>Hu Mean pressure utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>0.59</t>
+  </si>
+  <si>
+    <t>[ 0.25,  1.41]</t>
+  </si>
+  <si>
+    <t>0.883</t>
+  </si>
+  <si>
+    <t>Hu Mean pushing experienced</t>
+  </si>
+  <si>
+    <t>0.63</t>
+  </si>
+  <si>
+    <t>[ 0.19,  2.02]</t>
+  </si>
+  <si>
+    <t>0.778</t>
+  </si>
+  <si>
+    <t>Hu Mean pushing utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>[ 0.41,  4.24]</t>
+  </si>
+  <si>
+    <t>0.671</t>
+  </si>
+  <si>
+    <t>Hu Mean weartime</t>
+  </si>
+  <si>
+    <t>Hu Mean support received</t>
+  </si>
+  <si>
+    <t>1.28*</t>
+  </si>
+  <si>
+    <t>[ 1.01,  1.65]</t>
+  </si>
+  <si>
+    <t>Hu Mean support provided (partner's view)</t>
+  </si>
+  <si>
+    <t>1.40**</t>
+  </si>
+  <si>
+    <t>[ 1.09,  1.79]</t>
+  </si>
+  <si>
+    <t>0.996</t>
+  </si>
+  <si>
+    <t>Hu Difference study group 2</t>
+  </si>
+  <si>
+    <t>Hu Difference study group 3</t>
+  </si>
+  <si>
+    <t>Random Effects</t>
+  </si>
+  <si>
+    <t>sd(Intercept)</t>
+  </si>
+  <si>
+    <t>0.31</t>
+  </si>
+  <si>
+    <t>[0.24, 0.41]</t>
+  </si>
+  <si>
+    <t>0.30</t>
+  </si>
+  <si>
+    <t>[0.23, 0.39]</t>
+  </si>
+  <si>
+    <t>0.60</t>
+  </si>
+  <si>
+    <t>[0.48, 0.79]</t>
+  </si>
+  <si>
+    <t>[0.47, 1.33]</t>
+  </si>
+  <si>
+    <t>1.22</t>
+  </si>
+  <si>
+    <t>[0.77, 1.86]</t>
+  </si>
+  <si>
+    <t>sd(Hurdle Intercept)</t>
+  </si>
+  <si>
+    <t>0.77</t>
+  </si>
+  <si>
+    <t>[0.58, 1.03]</t>
+  </si>
+  <si>
+    <t>sd(Daily persuasion experienced)</t>
+  </si>
+  <si>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t>[0.07, 0.16]</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>[0.02, 0.08]</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>[0.00, 0.10]</t>
+  </si>
+  <si>
+    <t>[0.01, 0.46]</t>
+  </si>
+  <si>
+    <t>[0.02, 0.57]</t>
+  </si>
+  <si>
+    <t>sd(Daily persuasion utilized (partner's view))</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>[0.04, 0.13]</t>
+  </si>
+  <si>
+    <t>[0.02, 0.09]</t>
+  </si>
+  <si>
+    <t>[0.01, 0.12]</t>
+  </si>
+  <si>
+    <t>0.23</t>
+  </si>
+  <si>
+    <t>[0.01, 0.55]</t>
+  </si>
+  <si>
+    <t>0.52</t>
+  </si>
+  <si>
+    <t>[0.14, 1.04]</t>
+  </si>
+  <si>
+    <t>sd(Daily pressure experienced)</t>
+  </si>
+  <si>
+    <t>[0.00, 0.21]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.13]</t>
+  </si>
+  <si>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>[0.00, 0.25]</t>
+  </si>
+  <si>
+    <t>0.54</t>
+  </si>
+  <si>
+    <t>[0.08, 1.15]</t>
+  </si>
+  <si>
+    <t>[0.09, 2.33]</t>
+  </si>
+  <si>
+    <t>sd(Daily pressure utilized (partner's view))</t>
+  </si>
+  <si>
+    <t>[0.00, 0.17]</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>[0.00, 0.11]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.26]</t>
+  </si>
+  <si>
+    <t>0.40</t>
+  </si>
+  <si>
+    <t>[0.02, 1.55]</t>
+  </si>
+  <si>
+    <t>0.80</t>
+  </si>
+  <si>
+    <t>[0.04, 2.73]</t>
+  </si>
+  <si>
+    <t>sd(Daily pushing experienced)</t>
+  </si>
+  <si>
+    <t>[0.01, 0.16]</t>
+  </si>
+  <si>
+    <t>[0.01, 0.14]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.14]</t>
+  </si>
+  <si>
+    <t>0.24</t>
+  </si>
+  <si>
+    <t>[0.02, 0.55]</t>
+  </si>
+  <si>
+    <t>0.26</t>
+  </si>
+  <si>
+    <t>[0.02, 0.64]</t>
+  </si>
+  <si>
+    <t>sd(Daily pushing utilized (partner's view))</t>
+  </si>
+  <si>
+    <t>[0.01, 0.15]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.15]</t>
+  </si>
+  <si>
+    <t>0.14</t>
+  </si>
+  <si>
+    <t>[0.01, 0.60]</t>
+  </si>
+  <si>
+    <t>0.27</t>
+  </si>
+  <si>
+    <t>[0.01, 1.01]</t>
+  </si>
+  <si>
+    <t>sd(Hu Daily persuasion experienced)</t>
+  </si>
+  <si>
+    <t>[0.01, 0.36]</t>
+  </si>
+  <si>
+    <t>sd(Hu Daily persuasion utilized (partner's view))</t>
+  </si>
+  <si>
+    <t>0.18</t>
+  </si>
+  <si>
+    <t>[0.01, 0.39]</t>
+  </si>
+  <si>
+    <t>sd(Hu Daily pressure experienced)</t>
+  </si>
+  <si>
+    <t>0.22</t>
+  </si>
+  <si>
+    <t>[0.01, 0.81]</t>
+  </si>
+  <si>
+    <t>sd(Hu Daily pressure utilized (partner's view))</t>
+  </si>
+  <si>
+    <t>0.35</t>
+  </si>
+  <si>
+    <t>[0.02, 1.10]</t>
+  </si>
+  <si>
+    <t>sd(Hu Daily pushing experienced)</t>
+  </si>
+  <si>
+    <t>0.55</t>
+  </si>
+  <si>
+    <t>[0.26, 0.97]</t>
+  </si>
+  <si>
+    <t>sd(Hu Daily pushing utilized (partner's view))</t>
+  </si>
+  <si>
+    <t>0.19</t>
+  </si>
+  <si>
+    <t>[0.01, 0.52]</t>
+  </si>
+  <si>
+    <t>Additional Parameters</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>0.66</t>
+  </si>
+  <si>
+    <t>[0.64, 0.69]</t>
+  </si>
+  <si>
+    <t>0.57</t>
+  </si>
+  <si>
+    <t>[0.56, 0.59]</t>
+  </si>
+  <si>
+    <t>[0.93, 0.97]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1413,24 +1420,30 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <b/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <i/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -1442,20 +1455,28 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1471,20 +1492,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1766,64 +1805,84 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P90"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" zoomScale="76" workbookViewId="0">
+      <selection activeCell="A17" activeCellId="1" sqref="A16:XFD16 A17:XFD17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="1" width="43.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.40625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.31640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.40625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.40625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.40625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.40625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1873,7 +1932,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -1917,7 +1976,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1943,58 +2002,58 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="N5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="O5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="P5" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A6" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -2043,8 +2102,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A7" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -2093,11 +2152,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A8" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="12" t="s">
         <v>56</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -2143,8 +2202,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A9" s="7" t="s">
         <v>71</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -2193,8 +2252,8 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A10" s="7" t="s">
         <v>86</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -2243,8 +2302,8 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A11" s="7" t="s">
         <v>100</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -2265,7 +2324,7 @@
       <c r="G11" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="12" t="s">
         <v>105</v>
       </c>
       <c r="I11" s="1" t="s">
@@ -2293,8 +2352,8 @@
         <v>111</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A12" s="7" t="s">
         <v>112</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -2343,8 +2402,8 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A13" s="7" t="s">
         <v>126</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -2393,8 +2452,8 @@
         <v>139</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A14" s="7" t="s">
         <v>140</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -2443,8 +2502,8 @@
         <v>151</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A15" s="7" t="s">
         <v>152</v>
       </c>
       <c r="B15" s="1"/>
@@ -2469,8 +2528,8 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A16" s="7" t="s">
         <v>155</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -2519,8 +2578,8 @@
         <v>167</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A17" s="7" t="s">
         <v>168</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -2569,8 +2628,8 @@
         <v>180</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A18" s="7" t="s">
         <v>181</v>
       </c>
       <c r="B18" s="1"/>
@@ -2589,8 +2648,8 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A19" s="7" t="s">
         <v>182</v>
       </c>
       <c r="B19" s="1"/>
@@ -2609,8 +2668,8 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20">
-      <c r="A20" s="8" t="s">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A20" s="7" t="s">
         <v>183</v>
       </c>
       <c r="B20" s="1"/>
@@ -2629,58 +2688,58 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A21" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I21" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="J21" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="K21" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="L21" s="1" t="s">
+      <c r="L21" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="M21" s="1" t="s">
+      <c r="M21" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="N21" s="1" t="s">
+      <c r="N21" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="O21" s="1" t="s">
+      <c r="O21" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="P21" s="1" t="s">
+      <c r="P21" s="11" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="8" t="s">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A22" s="7" t="s">
         <v>185</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -2729,8 +2788,8 @@
         <v>198</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="8" t="s">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A23" s="7" t="s">
         <v>199</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -2779,8 +2838,8 @@
         <v>212</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="8" t="s">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A24" s="7" t="s">
         <v>213</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -2829,8 +2888,8 @@
         <v>225</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="8" t="s">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A25" s="7" t="s">
         <v>226</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -2879,8 +2938,8 @@
         <v>237</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="8" t="s">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A26" s="7" t="s">
         <v>238</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -2929,8 +2988,8 @@
         <v>253</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="8" t="s">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A27" s="7" t="s">
         <v>254</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2979,8 +3038,8 @@
         <v>268</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="8" t="s">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A28" s="7" t="s">
         <v>269</v>
       </c>
       <c r="B28" s="1"/>
@@ -3005,8 +3064,8 @@
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
     </row>
-    <row r="29">
-      <c r="A29" s="8" t="s">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A29" s="7" t="s">
         <v>271</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -3055,8 +3114,8 @@
         <v>284</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="8" t="s">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A30" s="7" t="s">
         <v>285</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -3105,8 +3164,8 @@
         <v>297</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="8" t="s">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A31" s="7" t="s">
         <v>298</v>
       </c>
       <c r="B31" s="1"/>
@@ -3125,8 +3184,8 @@
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
     </row>
-    <row r="32">
-      <c r="A32" s="8" t="s">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A32" s="7" t="s">
         <v>299</v>
       </c>
       <c r="B32" s="1"/>
@@ -3145,58 +3204,58 @@
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
     </row>
-    <row r="33">
-      <c r="A33" s="7" t="s">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A33" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G33" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="H33" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="I33" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="J33" s="1" t="s">
+      <c r="J33" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="K33" s="1" t="s">
+      <c r="K33" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="L33" s="1" t="s">
+      <c r="L33" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="M33" s="1" t="s">
+      <c r="M33" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="N33" s="1" t="s">
+      <c r="N33" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="O33" s="1" t="s">
+      <c r="O33" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="P33" s="1" t="s">
+      <c r="P33" s="11" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="8" t="s">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A34" s="7" t="s">
         <v>301</v>
       </c>
       <c r="B34" s="5" t="s">
@@ -3221,11 +3280,11 @@
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
     </row>
-    <row r="35">
-      <c r="A35" s="8" t="s">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A35" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="12" t="s">
         <v>255</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -3247,8 +3306,8 @@
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
     </row>
-    <row r="36">
-      <c r="A36" s="8" t="s">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A36" s="7" t="s">
         <v>307</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -3273,8 +3332,8 @@
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
     </row>
-    <row r="37">
-      <c r="A37" s="8" t="s">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A37" s="7" t="s">
         <v>310</v>
       </c>
       <c r="B37" s="5" t="s">
@@ -3299,8 +3358,8 @@
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
     </row>
-    <row r="38">
-      <c r="A38" s="8" t="s">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A38" s="7" t="s">
         <v>314</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -3325,11 +3384,11 @@
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
     </row>
-    <row r="39">
-      <c r="A39" s="8" t="s">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A39" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="12" t="s">
         <v>80</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -3351,8 +3410,8 @@
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
     </row>
-    <row r="40">
-      <c r="A40" s="8" t="s">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A40" s="7" t="s">
         <v>321</v>
       </c>
       <c r="B40" s="5" t="s">
@@ -3377,8 +3436,8 @@
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
     </row>
-    <row r="41">
-      <c r="A41" s="8" t="s">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A41" s="7" t="s">
         <v>324</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -3403,8 +3462,8 @@
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
     </row>
-    <row r="42">
-      <c r="A42" s="8" t="s">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A42" s="7" t="s">
         <v>328</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -3429,8 +3488,8 @@
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
     </row>
-    <row r="43">
-      <c r="A43" s="8" t="s">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A43" s="7" t="s">
         <v>330</v>
       </c>
       <c r="B43" s="1"/>
@@ -3449,8 +3508,8 @@
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
     </row>
-    <row r="44">
-      <c r="A44" s="8" t="s">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A44" s="7" t="s">
         <v>331</v>
       </c>
       <c r="B44" s="5" t="s">
@@ -3475,8 +3534,8 @@
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
     </row>
-    <row r="45">
-      <c r="A45" s="8" t="s">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A45" s="7" t="s">
         <v>334</v>
       </c>
       <c r="B45" s="5" t="s">
@@ -3501,8 +3560,8 @@
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
     </row>
-    <row r="46">
-      <c r="A46" s="8" t="s">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A46" s="7" t="s">
         <v>337</v>
       </c>
       <c r="B46" s="1"/>
@@ -3521,8 +3580,8 @@
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
     </row>
-    <row r="47">
-      <c r="A47" s="8" t="s">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A47" s="7" t="s">
         <v>338</v>
       </c>
       <c r="B47" s="1"/>
@@ -3541,8 +3600,8 @@
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
     </row>
-    <row r="48">
-      <c r="A48" s="8" t="s">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A48" s="7" t="s">
         <v>339</v>
       </c>
       <c r="B48" s="1"/>
@@ -3561,58 +3620,58 @@
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
     </row>
-    <row r="49">
-      <c r="A49" s="7" t="s">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A49" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="11" t="s">
         <v>340</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="11" t="s">
         <v>340</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="11" t="s">
         <v>340</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E49" s="11" t="s">
         <v>340</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="F49" s="11" t="s">
         <v>340</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="G49" s="11" t="s">
         <v>340</v>
       </c>
-      <c r="H49" s="1" t="s">
+      <c r="H49" s="11" t="s">
         <v>340</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="I49" s="11" t="s">
         <v>340</v>
       </c>
-      <c r="J49" s="1" t="s">
+      <c r="J49" s="11" t="s">
         <v>340</v>
       </c>
-      <c r="K49" s="1" t="s">
+      <c r="K49" s="11" t="s">
         <v>340</v>
       </c>
-      <c r="L49" s="1" t="s">
+      <c r="L49" s="11" t="s">
         <v>340</v>
       </c>
-      <c r="M49" s="1" t="s">
+      <c r="M49" s="11" t="s">
         <v>340</v>
       </c>
-      <c r="N49" s="1" t="s">
+      <c r="N49" s="11" t="s">
         <v>340</v>
       </c>
-      <c r="O49" s="1" t="s">
+      <c r="O49" s="11" t="s">
         <v>340</v>
       </c>
-      <c r="P49" s="1" t="s">
+      <c r="P49" s="11" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="8" t="s">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A50" s="7" t="s">
         <v>341</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -3637,8 +3696,8 @@
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
     </row>
-    <row r="51">
-      <c r="A51" s="8" t="s">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A51" s="7" t="s">
         <v>344</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -3663,8 +3722,8 @@
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
     </row>
-    <row r="52">
-      <c r="A52" s="8" t="s">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A52" s="7" t="s">
         <v>348</v>
       </c>
       <c r="B52" s="5" t="s">
@@ -3689,8 +3748,8 @@
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
     </row>
-    <row r="53">
-      <c r="A53" s="8" t="s">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A53" s="7" t="s">
         <v>351</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -3715,8 +3774,8 @@
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
     </row>
-    <row r="54">
-      <c r="A54" s="8" t="s">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A54" s="7" t="s">
         <v>355</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -3741,8 +3800,8 @@
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
     </row>
-    <row r="55">
-      <c r="A55" s="8" t="s">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A55" s="7" t="s">
         <v>359</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -3767,8 +3826,8 @@
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
     </row>
-    <row r="56">
-      <c r="A56" s="8" t="s">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A56" s="7" t="s">
         <v>362</v>
       </c>
       <c r="B56" s="1"/>
@@ -3787,8 +3846,8 @@
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
     </row>
-    <row r="57">
-      <c r="A57" s="8" t="s">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A57" s="7" t="s">
         <v>363</v>
       </c>
       <c r="B57" s="5" t="s">
@@ -3813,8 +3872,8 @@
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
     </row>
-    <row r="58">
-      <c r="A58" s="8" t="s">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A58" s="7" t="s">
         <v>366</v>
       </c>
       <c r="B58" s="5" t="s">
@@ -3839,8 +3898,8 @@
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
     </row>
-    <row r="59">
-      <c r="A59" s="8" t="s">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A59" s="7" t="s">
         <v>370</v>
       </c>
       <c r="B59" s="1"/>
@@ -3859,8 +3918,8 @@
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
     </row>
-    <row r="60">
-      <c r="A60" s="8" t="s">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A60" s="7" t="s">
         <v>371</v>
       </c>
       <c r="B60" s="1"/>
@@ -3879,58 +3938,58 @@
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
     </row>
-    <row r="61">
-      <c r="A61" s="7" t="s">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A61" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E61" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="F61" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="G61" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="H61" s="1" t="s">
+      <c r="H61" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="I61" s="1" t="s">
+      <c r="I61" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="J61" s="1" t="s">
+      <c r="J61" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="K61" s="1" t="s">
+      <c r="K61" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="L61" s="1" t="s">
+      <c r="L61" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="M61" s="1" t="s">
+      <c r="M61" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="N61" s="1" t="s">
+      <c r="N61" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="O61" s="1" t="s">
+      <c r="O61" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="P61" s="1" t="s">
+      <c r="P61" s="11" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="8" t="s">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A62" s="7" t="s">
         <v>373</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -3969,8 +4028,8 @@
       </c>
       <c r="P62" s="1"/>
     </row>
-    <row r="63">
-      <c r="A63" s="8" t="s">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A63" s="7" t="s">
         <v>383</v>
       </c>
       <c r="B63" s="1" t="s">
@@ -3993,8 +4052,8 @@
       <c r="O63" s="1"/>
       <c r="P63" s="1"/>
     </row>
-    <row r="64">
-      <c r="A64" s="8" t="s">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A64" s="7" t="s">
         <v>386</v>
       </c>
       <c r="B64" s="1" t="s">
@@ -4033,8 +4092,8 @@
       </c>
       <c r="P64" s="1"/>
     </row>
-    <row r="65">
-      <c r="A65" s="8" t="s">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A65" s="7" t="s">
         <v>395</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -4073,8 +4132,8 @@
       </c>
       <c r="P65" s="1"/>
     </row>
-    <row r="66">
-      <c r="A66" s="8" t="s">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A66" s="7" t="s">
         <v>404</v>
       </c>
       <c r="B66" s="1" t="s">
@@ -4113,8 +4172,8 @@
       </c>
       <c r="P66" s="1"/>
     </row>
-    <row r="67">
-      <c r="A67" s="8" t="s">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A67" s="7" t="s">
         <v>412</v>
       </c>
       <c r="B67" s="1" t="s">
@@ -4153,8 +4212,8 @@
       </c>
       <c r="P67" s="1"/>
     </row>
-    <row r="68">
-      <c r="A68" s="8" t="s">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A68" s="7" t="s">
         <v>421</v>
       </c>
       <c r="B68" s="1" t="s">
@@ -4193,8 +4252,8 @@
       </c>
       <c r="P68" s="1"/>
     </row>
-    <row r="69">
-      <c r="A69" s="8" t="s">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A69" s="7" t="s">
         <v>429</v>
       </c>
       <c r="B69" s="1" t="s">
@@ -4233,8 +4292,8 @@
       </c>
       <c r="P69" s="1"/>
     </row>
-    <row r="70">
-      <c r="A70" s="8" t="s">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A70" s="7" t="s">
         <v>436</v>
       </c>
       <c r="B70" s="1" t="s">
@@ -4257,8 +4316,8 @@
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
     </row>
-    <row r="71">
-      <c r="A71" s="8" t="s">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A71" s="7" t="s">
         <v>438</v>
       </c>
       <c r="B71" s="1" t="s">
@@ -4281,8 +4340,8 @@
       <c r="O71" s="1"/>
       <c r="P71" s="1"/>
     </row>
-    <row r="72">
-      <c r="A72" s="8" t="s">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A72" s="7" t="s">
         <v>441</v>
       </c>
       <c r="B72" s="1" t="s">
@@ -4305,8 +4364,8 @@
       <c r="O72" s="1"/>
       <c r="P72" s="1"/>
     </row>
-    <row r="73">
-      <c r="A73" s="8" t="s">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A73" s="7" t="s">
         <v>444</v>
       </c>
       <c r="B73" s="1" t="s">
@@ -4329,8 +4388,8 @@
       <c r="O73" s="1"/>
       <c r="P73" s="1"/>
     </row>
-    <row r="74">
-      <c r="A74" s="8" t="s">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A74" s="7" t="s">
         <v>447</v>
       </c>
       <c r="B74" s="1" t="s">
@@ -4353,8 +4412,8 @@
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
     </row>
-    <row r="75">
-      <c r="A75" s="8" t="s">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A75" s="7" t="s">
         <v>450</v>
       </c>
       <c r="B75" s="1" t="s">
@@ -4377,58 +4436,58 @@
       <c r="O75" s="1"/>
       <c r="P75" s="1"/>
     </row>
-    <row r="76">
-      <c r="A76" s="7" t="s">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A76" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="11" t="s">
         <v>453</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="11" t="s">
         <v>453</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D76" s="11" t="s">
         <v>453</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="E76" s="11" t="s">
         <v>453</v>
       </c>
-      <c r="F76" s="1" t="s">
+      <c r="F76" s="11" t="s">
         <v>453</v>
       </c>
-      <c r="G76" s="1" t="s">
+      <c r="G76" s="11" t="s">
         <v>453</v>
       </c>
-      <c r="H76" s="1" t="s">
+      <c r="H76" s="11" t="s">
         <v>453</v>
       </c>
-      <c r="I76" s="1" t="s">
+      <c r="I76" s="11" t="s">
         <v>453</v>
       </c>
-      <c r="J76" s="1" t="s">
+      <c r="J76" s="11" t="s">
         <v>453</v>
       </c>
-      <c r="K76" s="1" t="s">
+      <c r="K76" s="11" t="s">
         <v>453</v>
       </c>
-      <c r="L76" s="1" t="s">
+      <c r="L76" s="11" t="s">
         <v>453</v>
       </c>
-      <c r="M76" s="1" t="s">
+      <c r="M76" s="11" t="s">
         <v>453</v>
       </c>
-      <c r="N76" s="1" t="s">
+      <c r="N76" s="11" t="s">
         <v>453</v>
       </c>
-      <c r="O76" s="1" t="s">
+      <c r="O76" s="11" t="s">
         <v>453</v>
       </c>
-      <c r="P76" s="1" t="s">
+      <c r="P76" s="11" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="9" t="s">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A77" s="8" t="s">
         <v>454</v>
       </c>
       <c r="B77" s="4" t="s">
@@ -4459,60 +4518,60 @@
       <c r="O77" s="4"/>
       <c r="P77" s="4"/>
     </row>
-    <row r="78">
-      <c r="A78" s="8"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="8"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="8"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="8"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="8"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="8"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="8"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="8"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="8"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="8"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="8"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="8"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="8"/>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A78" s="7"/>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A79" s="7"/>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A80" s="7"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A81" s="7"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A82" s="7"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A83" s="7"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A84" s="7"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A85" s="7"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A86" s="7"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A87" s="7"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A88" s="7"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A89" s="7"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A90" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A76:P76"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A21:P21"/>
+    <mergeCell ref="A33:P33"/>
+    <mergeCell ref="A49:P49"/>
+    <mergeCell ref="A61:P61"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:P1"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A21:P21"/>
-    <mergeCell ref="A33:P33"/>
-    <mergeCell ref="A49:P49"/>
-    <mergeCell ref="A61:P61"/>
-    <mergeCell ref="A76:P76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Output/AllModels_sensitivitySupport_12000.xlsx
+++ b/Output/AllModels_sensitivitySupport_12000.xlsx
@@ -1,892 +1,899 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kueng\DataAnalysis\02TimeAndTiesControl_updatedBRMS\Output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680735C1-DC02-49C0-8E43-B1F6B60CD986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="289">
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Subjective MVPA Hurdle Lognormal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Device-Based MVPA Log (Gaussian)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mood Gaussian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reactance Dichotome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp(Est.)_hu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95% CI_hu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp(Est.)_nonzero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95% CI_nonzero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp(Est.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95% CI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Est.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intercept</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.27***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.20,  0.38]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.76***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[31.90, 42.19]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112.02***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[100.66, 124.90]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 3.48, 3.90]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.33**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.17,   0.64]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Within-Person Effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily persuasion experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.06,  1.40]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.94,  1.05]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.98,   1.04]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.08, 0.00]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.73,   1.11]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily persuasion utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.95,  1.25]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.96,  1.05]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.05, 0.04]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.89,   1.74]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily pressure experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.65,  1.28]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.83,  1.01]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.89,   1.01]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.14, 0.07]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1.01,   4.31]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily pressure utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.09,  2.70]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.87,  1.03]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.92,   1.05]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.14, 0.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.53,   4.04]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily pushing experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.63,  1.15]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.90,  1.03]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.96,   1.06]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.07, 0.05]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1.07,   1.85]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily pushing utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.95,  1.51]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.89,  1.01]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.95,   1.04]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.01, 0.13]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.63,   1.43]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Own actionplan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 7.95, 12.05]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.24,  1.48]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  1.01,   1.11]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.09*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.01, 0.16]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.49,   1.78]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partner actionplan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.83,  1.25]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.96,  1.13]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.99,   1.09]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.13, 0.02]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.52,   1.68]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.68,  1.25]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.88,  1.12]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.91,   1.05]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.26***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.16, 0.37]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.70,   3.38]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily weartime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  1.00,   1.00]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily support received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.55,  1.87]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.05,  1.10]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  1.02,   1.06]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.08***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.05, 0.11]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.83*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.70,   0.97]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily support provided (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.28,  1.52]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.02,  1.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.99,   1.03]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.04*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.01, 0.07]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.73,   1.02]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is a Weekend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JITAI received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Days post skilled support intervention</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Between-Person Effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean persuasion experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.60,  2.81]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.68,  1.28]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.79,   1.40]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.32, 0.83]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.66,   8.28]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean persuasion utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.53,  2.44]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.73,  1.36]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.73,   1.30]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.26, 0.90]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.52,   8.94]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean pressure experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.14,  0.83]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.89,  1.80]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.77,   1.40]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.83, 0.29]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.64**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[2.66, 204.01]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean pressure utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.25,  1.41]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.65,  1.33]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.73,   1.28]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.91, 0.21]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.24,  23.56]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean pushing experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.19,  2.02]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.73,  1.87]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.58,   1.41]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.64, 1.04]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.17,  11.18]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean pushing utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.41,  4.24]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.67,  1.77]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.72,   1.72]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.69, 0.99]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.10*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01,   0.95]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean weartime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean support received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.01,  1.65]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.02,  1.23]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.99,   1.16]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.00, 0.31]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.37,   1.42]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean support provided (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.09,  1.79]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.89,  1.06]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.92,   1.09]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.24, 0.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.46,   1.33]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Difference study group 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Difference study group 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Random Effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Intercept)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.58, 1.03]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.24, 0.41]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.23, 0.39]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.48, 0.79]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.77, 1.86]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily persuasion experienced)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.36]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.07, 0.16]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 0.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.10]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 0.57]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily persuasion utilized (partner's view))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.39]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.04, 0.13]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 0.09]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.12]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.14, 1.04]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily pressure experienced)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.81]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.21]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.13]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.25]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.09, 2.33]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily pressure utilized (partner's view))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 1.10]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.17]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.11]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.26]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.04, 2.73]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily pushing experienced)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.26, 0.97]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.16]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.14]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.14]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 0.64]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily pushing utilized (partner's view))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.52]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.15]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.15]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 1.01]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Additional Parameters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sigma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.64, 0.69]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.56, 0.59]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.93, 0.97]</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="289">
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Subjective MVPA Hurdle Lognormal</t>
+  </si>
+  <si>
+    <t>Device-Based MVPA Log (Gaussian)</t>
+  </si>
+  <si>
+    <t>Mood Gaussian</t>
+  </si>
+  <si>
+    <t>Reactance Dichotome</t>
+  </si>
+  <si>
+    <t>exp(Est.)_hu</t>
+  </si>
+  <si>
+    <t>95% CI_hu</t>
+  </si>
+  <si>
+    <t>exp(Est.)_nonzero</t>
+  </si>
+  <si>
+    <t>95% CI_nonzero</t>
+  </si>
+  <si>
+    <t>exp(Est.)</t>
+  </si>
+  <si>
+    <t>95% CI</t>
+  </si>
+  <si>
+    <t>Est.</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>0.27***</t>
+  </si>
+  <si>
+    <t>[ 0.20,  0.38]</t>
+  </si>
+  <si>
+    <t>36.76***</t>
+  </si>
+  <si>
+    <t>[31.90, 42.19]</t>
+  </si>
+  <si>
+    <t>112.02***</t>
+  </si>
+  <si>
+    <t>[100.66, 124.90]</t>
+  </si>
+  <si>
+    <t>3.69***</t>
+  </si>
+  <si>
+    <t>[ 3.48, 3.90]</t>
+  </si>
+  <si>
+    <t>0.33**</t>
+  </si>
+  <si>
+    <t>[0.17,   0.64]</t>
+  </si>
+  <si>
+    <t>Within-Person Effects</t>
+  </si>
+  <si>
+    <t>Daily persuasion experienced</t>
+  </si>
+  <si>
+    <t>1.21**</t>
+  </si>
+  <si>
+    <t>[ 1.06,  1.40]</t>
+  </si>
+  <si>
+    <t>0.99</t>
+  </si>
+  <si>
+    <t>[ 0.94,  1.05]</t>
+  </si>
+  <si>
+    <t>1.01</t>
+  </si>
+  <si>
+    <t>[  0.98,   1.04]</t>
+  </si>
+  <si>
+    <t>-0.04</t>
+  </si>
+  <si>
+    <t>[-0.08, 0.00]</t>
+  </si>
+  <si>
+    <t>0.91</t>
+  </si>
+  <si>
+    <t>[0.73,   1.11]</t>
+  </si>
+  <si>
+    <t>Daily persuasion utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>1.08</t>
+  </si>
+  <si>
+    <t>[ 0.95,  1.25]</t>
+  </si>
+  <si>
+    <t>1.00</t>
+  </si>
+  <si>
+    <t>[ 0.96,  1.05]</t>
+  </si>
+  <si>
+    <t>-0.01</t>
+  </si>
+  <si>
+    <t>[-0.05, 0.04]</t>
+  </si>
+  <si>
+    <t>1.23</t>
+  </si>
+  <si>
+    <t>[0.89,   1.74]</t>
+  </si>
+  <si>
+    <t>Daily pressure experienced</t>
+  </si>
+  <si>
+    <t>[ 0.65,  1.28]</t>
+  </si>
+  <si>
+    <t>0.92</t>
+  </si>
+  <si>
+    <t>[ 0.83,  1.01]</t>
+  </si>
+  <si>
+    <t>0.95</t>
+  </si>
+  <si>
+    <t>[  0.89,   1.01]</t>
+  </si>
+  <si>
+    <t>-0.03</t>
+  </si>
+  <si>
+    <t>[-0.14, 0.07]</t>
+  </si>
+  <si>
+    <t>1.96*</t>
+  </si>
+  <si>
+    <t>[1.01,   4.31]</t>
+  </si>
+  <si>
+    <t>Daily pressure utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>1.63*</t>
+  </si>
+  <si>
+    <t>[ 1.09,  2.70]</t>
+  </si>
+  <si>
+    <t>[ 0.87,  1.03]</t>
+  </si>
+  <si>
+    <t>0.98</t>
+  </si>
+  <si>
+    <t>[  0.92,   1.05]</t>
+  </si>
+  <si>
+    <t>-0.02</t>
+  </si>
+  <si>
+    <t>[-0.14, 0.08]</t>
+  </si>
+  <si>
+    <t>1.32</t>
+  </si>
+  <si>
+    <t>[0.53,   4.04]</t>
+  </si>
+  <si>
+    <t>Daily pushing experienced</t>
+  </si>
+  <si>
+    <t>0.83</t>
+  </si>
+  <si>
+    <t>[ 0.63,  1.15]</t>
+  </si>
+  <si>
+    <t>0.97</t>
+  </si>
+  <si>
+    <t>[ 0.90,  1.03]</t>
+  </si>
+  <si>
+    <t>[  0.96,   1.06]</t>
+  </si>
+  <si>
+    <t>[-0.07, 0.05]</t>
+  </si>
+  <si>
+    <t>1.40*</t>
+  </si>
+  <si>
+    <t>[1.07,   1.85]</t>
+  </si>
+  <si>
+    <t>Daily pushing utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>1.18</t>
+  </si>
+  <si>
+    <t>[ 0.95,  1.51]</t>
+  </si>
+  <si>
+    <t>[ 0.89,  1.01]</t>
+  </si>
+  <si>
+    <t>[  0.95,   1.04]</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>[-0.01, 0.13]</t>
+  </si>
+  <si>
+    <t>[0.63,   1.43]</t>
+  </si>
+  <si>
+    <t>Own actionplan</t>
+  </si>
+  <si>
+    <t>9.75***</t>
+  </si>
+  <si>
+    <t>[ 7.95, 12.05]</t>
+  </si>
+  <si>
+    <t>1.35***</t>
+  </si>
+  <si>
+    <t>[ 1.24,  1.48]</t>
+  </si>
+  <si>
+    <t>1.06*</t>
+  </si>
+  <si>
+    <t>[  1.01,   1.11]</t>
+  </si>
+  <si>
+    <t>0.09*</t>
+  </si>
+  <si>
+    <t>[ 0.01, 0.16]</t>
+  </si>
+  <si>
+    <t>0.94</t>
+  </si>
+  <si>
+    <t>[0.49,   1.78]</t>
+  </si>
+  <si>
+    <t>Partner actionplan</t>
+  </si>
+  <si>
+    <t>1.02</t>
+  </si>
+  <si>
+    <t>[ 0.83,  1.25]</t>
+  </si>
+  <si>
+    <t>1.04</t>
+  </si>
+  <si>
+    <t>[ 0.96,  1.13]</t>
+  </si>
+  <si>
+    <t>[  0.99,   1.09]</t>
+  </si>
+  <si>
+    <t>-0.06</t>
+  </si>
+  <si>
+    <t>[-0.13, 0.02]</t>
+  </si>
+  <si>
+    <t>0.93</t>
+  </si>
+  <si>
+    <t>[0.52,   1.68]</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>[ 0.68,  1.25]</t>
+  </si>
+  <si>
+    <t>[ 0.88,  1.12]</t>
+  </si>
+  <si>
+    <t>[  0.91,   1.05]</t>
+  </si>
+  <si>
+    <t>0.26***</t>
+  </si>
+  <si>
+    <t>[ 0.16, 0.37]</t>
+  </si>
+  <si>
+    <t>1.54</t>
+  </si>
+  <si>
+    <t>[0.70,   3.38]</t>
+  </si>
+  <si>
+    <t>Daily weartime</t>
+  </si>
+  <si>
+    <t>1.00***</t>
+  </si>
+  <si>
+    <t>[  1.00,   1.00]</t>
+  </si>
+  <si>
+    <t>Daily support received</t>
+  </si>
+  <si>
+    <t>1.70***</t>
+  </si>
+  <si>
+    <t>[ 1.55,  1.87]</t>
+  </si>
+  <si>
+    <t>1.07***</t>
+  </si>
+  <si>
+    <t>[ 1.05,  1.10]</t>
+  </si>
+  <si>
+    <t>1.04***</t>
+  </si>
+  <si>
+    <t>[  1.02,   1.06]</t>
+  </si>
+  <si>
+    <t>0.08***</t>
+  </si>
+  <si>
+    <t>[ 0.05, 0.11]</t>
+  </si>
+  <si>
+    <t>0.83*</t>
+  </si>
+  <si>
+    <t>[0.70,   0.97]</t>
+  </si>
+  <si>
+    <t>Daily support provided (partner's view)</t>
+  </si>
+  <si>
+    <t>1.40***</t>
+  </si>
+  <si>
+    <t>[ 1.28,  1.52]</t>
+  </si>
+  <si>
+    <t>1.05***</t>
+  </si>
+  <si>
+    <t>[ 1.02,  1.08]</t>
+  </si>
+  <si>
+    <t>[  0.99,   1.03]</t>
+  </si>
+  <si>
+    <t>0.04*</t>
+  </si>
+  <si>
+    <t>[ 0.01, 0.07]</t>
+  </si>
+  <si>
+    <t>0.86</t>
+  </si>
+  <si>
+    <t>[0.73,   1.02]</t>
+  </si>
+  <si>
+    <t>Is a Weekend</t>
+  </si>
+  <si>
+    <t>JITAI received</t>
+  </si>
+  <si>
+    <t>Days post skilled support intervention</t>
+  </si>
+  <si>
+    <t>Between-Person Effects</t>
+  </si>
+  <si>
+    <t>Mean persuasion experienced</t>
+  </si>
+  <si>
+    <t>1.31</t>
+  </si>
+  <si>
+    <t>[ 0.60,  2.81]</t>
+  </si>
+  <si>
+    <t>[ 0.68,  1.28]</t>
+  </si>
+  <si>
+    <t>1.05</t>
+  </si>
+  <si>
+    <t>[  0.79,   1.40]</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>[-0.32, 0.83]</t>
+  </si>
+  <si>
+    <t>2.26</t>
+  </si>
+  <si>
+    <t>[0.66,   8.28]</t>
+  </si>
+  <si>
+    <t>Mean persuasion utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>1.13</t>
+  </si>
+  <si>
+    <t>[ 0.53,  2.44]</t>
+  </si>
+  <si>
+    <t>[ 0.73,  1.36]</t>
+  </si>
+  <si>
+    <t>[  0.73,   1.30]</t>
+  </si>
+  <si>
+    <t>0.32</t>
+  </si>
+  <si>
+    <t>[-0.26, 0.90]</t>
+  </si>
+  <si>
+    <t>2.08</t>
+  </si>
+  <si>
+    <t>[0.52,   8.94]</t>
+  </si>
+  <si>
+    <t>Mean pressure experienced</t>
+  </si>
+  <si>
+    <t>0.35*</t>
+  </si>
+  <si>
+    <t>[ 0.14,  0.83]</t>
+  </si>
+  <si>
+    <t>1.27</t>
+  </si>
+  <si>
+    <t>[ 0.89,  1.80]</t>
+  </si>
+  <si>
+    <t>[  0.77,   1.40]</t>
+  </si>
+  <si>
+    <t>-0.27</t>
+  </si>
+  <si>
+    <t>[-0.83, 0.29]</t>
+  </si>
+  <si>
+    <t>20.64**</t>
+  </si>
+  <si>
+    <t>[2.66, 204.01]</t>
+  </si>
+  <si>
+    <t>Mean pressure utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>0.59</t>
+  </si>
+  <si>
+    <t>[ 0.25,  1.41]</t>
+  </si>
+  <si>
+    <t>[ 0.65,  1.33]</t>
+  </si>
+  <si>
+    <t>[  0.73,   1.28]</t>
+  </si>
+  <si>
+    <t>-0.34</t>
+  </si>
+  <si>
+    <t>[-0.91, 0.21]</t>
+  </si>
+  <si>
+    <t>2.55</t>
+  </si>
+  <si>
+    <t>[0.24,  23.56]</t>
+  </si>
+  <si>
+    <t>Mean pushing experienced</t>
+  </si>
+  <si>
+    <t>0.63</t>
+  </si>
+  <si>
+    <t>[ 0.19,  2.02]</t>
+  </si>
+  <si>
+    <t>1.16</t>
+  </si>
+  <si>
+    <t>[ 0.73,  1.87]</t>
+  </si>
+  <si>
+    <t>0.90</t>
+  </si>
+  <si>
+    <t>[  0.58,   1.41]</t>
+  </si>
+  <si>
+    <t>0.20</t>
+  </si>
+  <si>
+    <t>[-0.64, 1.04]</t>
+  </si>
+  <si>
+    <t>[0.17,  11.18]</t>
+  </si>
+  <si>
+    <t>Mean pushing utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>1.30</t>
+  </si>
+  <si>
+    <t>[ 0.41,  4.24]</t>
+  </si>
+  <si>
+    <t>[ 0.67,  1.77]</t>
+  </si>
+  <si>
+    <t>1.11</t>
+  </si>
+  <si>
+    <t>[  0.72,   1.72]</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>[-0.69, 0.99]</t>
+  </si>
+  <si>
+    <t>0.10*</t>
+  </si>
+  <si>
+    <t>[0.01,   0.95]</t>
+  </si>
+  <si>
+    <t>Mean weartime</t>
+  </si>
+  <si>
+    <t>Mean support received</t>
+  </si>
+  <si>
+    <t>1.28*</t>
+  </si>
+  <si>
+    <t>[ 1.01,  1.65]</t>
+  </si>
+  <si>
+    <t>1.12*</t>
+  </si>
+  <si>
+    <t>[ 1.02,  1.23]</t>
+  </si>
+  <si>
+    <t>1.07</t>
+  </si>
+  <si>
+    <t>[  0.99,   1.16]</t>
+  </si>
+  <si>
+    <t>[ 0.00, 0.31]</t>
+  </si>
+  <si>
+    <t>0.74</t>
+  </si>
+  <si>
+    <t>[0.37,   1.42]</t>
+  </si>
+  <si>
+    <t>Mean support provided (partner's view)</t>
+  </si>
+  <si>
+    <t>1.40**</t>
+  </si>
+  <si>
+    <t>[ 1.09,  1.79]</t>
+  </si>
+  <si>
+    <t>[ 0.89,  1.06]</t>
+  </si>
+  <si>
+    <t>[  0.92,   1.09]</t>
+  </si>
+  <si>
+    <t>-0.08</t>
+  </si>
+  <si>
+    <t>[-0.24, 0.08]</t>
+  </si>
+  <si>
+    <t>0.79</t>
+  </si>
+  <si>
+    <t>[0.46,   1.33]</t>
+  </si>
+  <si>
+    <t>Difference study group 2</t>
+  </si>
+  <si>
+    <t>Difference study group 3</t>
+  </si>
+  <si>
+    <t>Random Effects</t>
+  </si>
+  <si>
+    <t>sd(Intercept)</t>
+  </si>
+  <si>
+    <t>0.77</t>
+  </si>
+  <si>
+    <t>[0.58, 1.03]</t>
+  </si>
+  <si>
+    <t>0.31</t>
+  </si>
+  <si>
+    <t>[0.24, 0.41]</t>
+  </si>
+  <si>
+    <t>0.30</t>
+  </si>
+  <si>
+    <t>[0.23, 0.39]</t>
+  </si>
+  <si>
+    <t>0.60</t>
+  </si>
+  <si>
+    <t>[0.48, 0.79]</t>
+  </si>
+  <si>
+    <t>1.22</t>
+  </si>
+  <si>
+    <t>[0.77, 1.86]</t>
+  </si>
+  <si>
+    <t>sd(Daily persuasion experienced)</t>
+  </si>
+  <si>
+    <t>0.14</t>
+  </si>
+  <si>
+    <t>[0.01, 0.36]</t>
+  </si>
+  <si>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t>[0.07, 0.16]</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>[0.02, 0.08]</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>[0.00, 0.10]</t>
+  </si>
+  <si>
+    <t>[0.02, 0.57]</t>
+  </si>
+  <si>
+    <t>sd(Daily persuasion utilized (partner's view))</t>
+  </si>
+  <si>
+    <t>0.18</t>
+  </si>
+  <si>
+    <t>[0.01, 0.39]</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>[0.04, 0.13]</t>
+  </si>
+  <si>
+    <t>[0.02, 0.09]</t>
+  </si>
+  <si>
+    <t>[0.01, 0.12]</t>
+  </si>
+  <si>
+    <t>0.52</t>
+  </si>
+  <si>
+    <t>[0.14, 1.04]</t>
+  </si>
+  <si>
+    <t>sd(Daily pressure experienced)</t>
+  </si>
+  <si>
+    <t>0.22</t>
+  </si>
+  <si>
+    <t>[0.01, 0.81]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.21]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.13]</t>
+  </si>
+  <si>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>[0.00, 0.25]</t>
+  </si>
+  <si>
+    <t>[0.09, 2.33]</t>
+  </si>
+  <si>
+    <t>sd(Daily pressure utilized (partner's view))</t>
+  </si>
+  <si>
+    <t>0.35</t>
+  </si>
+  <si>
+    <t>[0.02, 1.10]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.17]</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>[0.00, 0.11]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.26]</t>
+  </si>
+  <si>
+    <t>0.80</t>
+  </si>
+  <si>
+    <t>[0.04, 2.73]</t>
+  </si>
+  <si>
+    <t>sd(Daily pushing experienced)</t>
+  </si>
+  <si>
+    <t>0.55</t>
+  </si>
+  <si>
+    <t>[0.26, 0.97]</t>
+  </si>
+  <si>
+    <t>[0.01, 0.16]</t>
+  </si>
+  <si>
+    <t>[0.01, 0.14]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.14]</t>
+  </si>
+  <si>
+    <t>0.26</t>
+  </si>
+  <si>
+    <t>[0.02, 0.64]</t>
+  </si>
+  <si>
+    <t>sd(Daily pushing utilized (partner's view))</t>
+  </si>
+  <si>
+    <t>0.19</t>
+  </si>
+  <si>
+    <t>[0.01, 0.52]</t>
+  </si>
+  <si>
+    <t>[0.01, 0.15]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.15]</t>
+  </si>
+  <si>
+    <t>0.27</t>
+  </si>
+  <si>
+    <t>[0.01, 1.01]</t>
+  </si>
+  <si>
+    <t>Additional Parameters</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>0.66</t>
+  </si>
+  <si>
+    <t>[0.64, 0.69]</t>
+  </si>
+  <si>
+    <t>0.57</t>
+  </si>
+  <si>
+    <t>[0.56, 0.59]</t>
+  </si>
+  <si>
+    <t>[0.93, 0.97]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -900,24 +907,30 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <b/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <i/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -929,20 +942,28 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -958,20 +979,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1253,49 +1292,64 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" zoomScale="55" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="1" width="38.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.76953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.76953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.2265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.2265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.2265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.90625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1330,7 +1384,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -1365,43 +1419,43 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A5" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -1435,11 +1489,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="9" t="s">
         <v>37</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1470,8 +1524,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A7" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1480,7 +1534,7 @@
       <c r="C7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="9" t="s">
         <v>47</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -1505,8 +1559,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A8" s="7" t="s">
         <v>55</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1540,8 +1594,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A9" s="7" t="s">
         <v>65</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1575,11 +1629,11 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A10" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1597,7 +1651,7 @@
       <c r="G10" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="9" t="s">
         <v>79</v>
       </c>
       <c r="I10" s="1" t="s">
@@ -1610,8 +1664,8 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A11" s="7" t="s">
         <v>82</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -1645,8 +1699,8 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A12" s="7" t="s">
         <v>93</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1680,8 +1734,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A13" s="7" t="s">
         <v>103</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1715,8 +1769,8 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A14" s="7" t="s">
         <v>111</v>
       </c>
       <c r="B14" s="1"/>
@@ -1734,8 +1788,8 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A15" s="7" t="s">
         <v>114</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -1769,8 +1823,8 @@
         <v>124</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A16" s="7" t="s">
         <v>125</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -1804,8 +1858,8 @@
         <v>134</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A17" s="7" t="s">
         <v>135</v>
       </c>
       <c r="B17" s="1"/>
@@ -1819,8 +1873,8 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A18" s="7" t="s">
         <v>136</v>
       </c>
       <c r="B18" s="1"/>
@@ -1834,8 +1888,8 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A19" s="7" t="s">
         <v>137</v>
       </c>
       <c r="B19" s="1"/>
@@ -1849,43 +1903,43 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20">
-      <c r="A20" s="7" t="s">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A20" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I20" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="J20" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="K20" s="11" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="8" t="s">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A21" s="7" t="s">
         <v>139</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1919,8 +1973,8 @@
         <v>148</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="8" t="s">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A22" s="7" t="s">
         <v>149</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1954,8 +2008,8 @@
         <v>157</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="8" t="s">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A23" s="7" t="s">
         <v>158</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -1989,8 +2043,8 @@
         <v>167</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="8" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A24" s="7" t="s">
         <v>168</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -2024,8 +2078,8 @@
         <v>176</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="8" t="s">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A25" s="7" t="s">
         <v>177</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -2059,8 +2113,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="8" t="s">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A26" s="7" t="s">
         <v>187</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -2094,8 +2148,8 @@
         <v>196</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="8" t="s">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A27" s="7" t="s">
         <v>197</v>
       </c>
       <c r="B27" s="1"/>
@@ -2113,8 +2167,8 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28">
-      <c r="A28" s="8" t="s">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A28" s="7" t="s">
         <v>198</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -2148,8 +2202,8 @@
         <v>207</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="8" t="s">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A29" s="7" t="s">
         <v>208</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -2183,8 +2237,8 @@
         <v>216</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="8" t="s">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A30" s="7" t="s">
         <v>217</v>
       </c>
       <c r="B30" s="1"/>
@@ -2198,8 +2252,8 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31">
-      <c r="A31" s="8" t="s">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A31" s="7" t="s">
         <v>218</v>
       </c>
       <c r="B31" s="1"/>
@@ -2213,43 +2267,43 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32">
-      <c r="A32" s="7" t="s">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A32" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G32" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="H32" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="I32" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="J32" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="K32" s="11" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="8" t="s">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A33" s="7" t="s">
         <v>220</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -2283,8 +2337,8 @@
         <v>230</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="8" t="s">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A34" s="7" t="s">
         <v>231</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -2318,8 +2372,8 @@
         <v>240</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="8" t="s">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A35" s="7" t="s">
         <v>241</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -2353,8 +2407,8 @@
         <v>249</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="8" t="s">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A36" s="7" t="s">
         <v>250</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -2388,8 +2442,8 @@
         <v>257</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="8" t="s">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A37" s="7" t="s">
         <v>258</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -2423,8 +2477,8 @@
         <v>266</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="8" t="s">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A38" s="7" t="s">
         <v>267</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -2458,8 +2512,8 @@
         <v>274</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="8" t="s">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A39" s="7" t="s">
         <v>275</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -2493,43 +2547,43 @@
         <v>281</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="7" t="s">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A40" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F40" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="G40" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="H40" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="I40" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="J40" s="1" t="s">
+      <c r="J40" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="K40" s="1" t="s">
+      <c r="K40" s="11" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="9" t="s">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A41" s="8" t="s">
         <v>283</v>
       </c>
       <c r="B41" s="4"/>
@@ -2555,36 +2609,36 @@
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
     </row>
-    <row r="42">
-      <c r="A42" s="8"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="8"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="8"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="8"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="8"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="8"/>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A42" s="7"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A43" s="7"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A44" s="7"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A45" s="7"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A46" s="7"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A47" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A20:K20"/>
+    <mergeCell ref="A32:K32"/>
+    <mergeCell ref="A40:K40"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A20:K20"/>
-    <mergeCell ref="A32:K32"/>
-    <mergeCell ref="A40:K40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Output/AllModels_sensitivitySupport_12000.xlsx
+++ b/Output/AllModels_sensitivitySupport_12000.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kueng\DataAnalysis\02TimeAndTiesControl_updatedBRMS\Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pascku\Repos\02TimeAndTiesControl\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680735C1-DC02-49C0-8E43-B1F6B60CD986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ADAAFD7-71E3-46BF-908F-6700C27E533B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="283">
   <si>
     <t/>
   </si>
@@ -70,22 +70,22 @@
     <t>[ 0.20,  0.38]</t>
   </si>
   <si>
-    <t>36.76***</t>
-  </si>
-  <si>
-    <t>[31.90, 42.19]</t>
-  </si>
-  <si>
-    <t>112.02***</t>
-  </si>
-  <si>
-    <t>[100.66, 124.90]</t>
+    <t>36.71***</t>
+  </si>
+  <si>
+    <t>[31.96, 42.07]</t>
+  </si>
+  <si>
+    <t>112.12***</t>
+  </si>
+  <si>
+    <t>[100.65, 124.93]</t>
   </si>
   <si>
     <t>3.69***</t>
   </si>
   <si>
-    <t>[ 3.48, 3.90]</t>
+    <t>[ 3.47, 3.90]</t>
   </si>
   <si>
     <t>0.33**</t>
@@ -103,7 +103,7 @@
     <t>1.21**</t>
   </si>
   <si>
-    <t>[ 1.06,  1.40]</t>
+    <t>[ 1.06,  1.39]</t>
   </si>
   <si>
     <t>0.99</t>
@@ -136,7 +136,7 @@
     <t>1.08</t>
   </si>
   <si>
-    <t>[ 0.95,  1.25]</t>
+    <t>[ 0.95,  1.24]</t>
   </si>
   <si>
     <t>1.00</t>
@@ -151,16 +151,16 @@
     <t>[-0.05, 0.04]</t>
   </si>
   <si>
-    <t>1.23</t>
-  </si>
-  <si>
-    <t>[0.89,   1.74]</t>
+    <t>1.22</t>
+  </si>
+  <si>
+    <t>[0.90,   1.72]</t>
   </si>
   <si>
     <t>Daily pressure experienced</t>
   </si>
   <si>
-    <t>[ 0.65,  1.28]</t>
+    <t>[ 0.65,  1.30]</t>
   </si>
   <si>
     <t>0.92</t>
@@ -172,7 +172,7 @@
     <t>0.95</t>
   </si>
   <si>
-    <t>[  0.89,   1.01]</t>
+    <t>[  0.88,   1.01]</t>
   </si>
   <si>
     <t>-0.03</t>
@@ -184,19 +184,19 @@
     <t>1.96*</t>
   </si>
   <si>
-    <t>[1.01,   4.31]</t>
+    <t>[1.03,   4.34]</t>
   </si>
   <si>
     <t>Daily pressure utilized (partner's view)</t>
   </si>
   <si>
-    <t>1.63*</t>
-  </si>
-  <si>
-    <t>[ 1.09,  2.70]</t>
-  </si>
-  <si>
-    <t>[ 0.87,  1.03]</t>
+    <t>1.62*</t>
+  </si>
+  <si>
+    <t>[ 1.09,  2.74]</t>
+  </si>
+  <si>
+    <t>[ 0.87,  1.04]</t>
   </si>
   <si>
     <t>0.98</t>
@@ -214,43 +214,43 @@
     <t>1.32</t>
   </si>
   <si>
-    <t>[0.53,   4.04]</t>
+    <t>[0.53,   3.93]</t>
   </si>
   <si>
     <t>Daily pushing experienced</t>
   </si>
   <si>
-    <t>0.83</t>
-  </si>
-  <si>
-    <t>[ 0.63,  1.15]</t>
+    <t>0.84</t>
+  </si>
+  <si>
+    <t>[ 0.63,  1.16]</t>
   </si>
   <si>
     <t>0.97</t>
   </si>
   <si>
-    <t>[ 0.90,  1.03]</t>
+    <t>[ 0.91,  1.03]</t>
   </si>
   <si>
     <t>[  0.96,   1.06]</t>
   </si>
   <si>
-    <t>[-0.07, 0.05]</t>
+    <t>[-0.08, 0.05]</t>
   </si>
   <si>
     <t>1.40*</t>
   </si>
   <si>
-    <t>[1.07,   1.85]</t>
+    <t>[1.08,   1.85]</t>
   </si>
   <si>
     <t>Daily pushing utilized (partner's view)</t>
   </si>
   <si>
-    <t>1.18</t>
-  </si>
-  <si>
-    <t>[ 0.95,  1.51]</t>
+    <t>1.17</t>
+  </si>
+  <si>
+    <t>[ 0.95,  1.50]</t>
   </si>
   <si>
     <t>[ 0.89,  1.01]</t>
@@ -262,7 +262,7 @@
     <t>0.06</t>
   </si>
   <si>
-    <t>[-0.01, 0.13]</t>
+    <t>[-0.01, 0.12]</t>
   </si>
   <si>
     <t>[0.63,   1.43]</t>
@@ -271,16 +271,16 @@
     <t>Own actionplan</t>
   </si>
   <si>
-    <t>9.75***</t>
-  </si>
-  <si>
-    <t>[ 7.95, 12.05]</t>
+    <t>9.73***</t>
+  </si>
+  <si>
+    <t>[ 7.94, 12.01]</t>
   </si>
   <si>
     <t>1.35***</t>
   </si>
   <si>
-    <t>[ 1.24,  1.48]</t>
+    <t>[ 1.23,  1.48]</t>
   </si>
   <si>
     <t>1.06*</t>
@@ -298,7 +298,7 @@
     <t>0.94</t>
   </si>
   <si>
-    <t>[0.49,   1.78]</t>
+    <t>[0.50,   1.79]</t>
   </si>
   <si>
     <t>Partner actionplan</t>
@@ -328,19 +328,19 @@
     <t>0.93</t>
   </si>
   <si>
-    <t>[0.52,   1.68]</t>
+    <t>[0.52,   1.67]</t>
   </si>
   <si>
     <t>Day</t>
   </si>
   <si>
-    <t>[ 0.68,  1.25]</t>
+    <t>[ 0.69,  1.26]</t>
   </si>
   <si>
     <t>[ 0.88,  1.12]</t>
   </si>
   <si>
-    <t>[  0.91,   1.05]</t>
+    <t>[  0.91,   1.04]</t>
   </si>
   <si>
     <t>0.26***</t>
@@ -352,7 +352,7 @@
     <t>1.54</t>
   </si>
   <si>
-    <t>[0.70,   3.38]</t>
+    <t>[0.70,   3.35]</t>
   </si>
   <si>
     <t>Daily weartime</t>
@@ -370,7 +370,7 @@
     <t>1.70***</t>
   </si>
   <si>
-    <t>[ 1.55,  1.87]</t>
+    <t>[ 1.56,  1.87]</t>
   </si>
   <si>
     <t>1.07***</t>
@@ -400,7 +400,7 @@
     <t>Daily support provided (partner's view)</t>
   </si>
   <si>
-    <t>1.40***</t>
+    <t>1.39***</t>
   </si>
   <si>
     <t>[ 1.28,  1.52]</t>
@@ -442,316 +442,313 @@
     <t>Mean persuasion experienced</t>
   </si>
   <si>
-    <t>1.31</t>
-  </si>
-  <si>
-    <t>[ 0.60,  2.81]</t>
-  </si>
-  <si>
-    <t>[ 0.68,  1.28]</t>
-  </si>
-  <si>
-    <t>1.05</t>
-  </si>
-  <si>
-    <t>[  0.79,   1.40]</t>
+    <t>1.34</t>
+  </si>
+  <si>
+    <t>[ 0.61,  2.88]</t>
+  </si>
+  <si>
+    <t>[ 0.67,  1.25]</t>
+  </si>
+  <si>
+    <t>1.06</t>
+  </si>
+  <si>
+    <t>[  0.79,   1.41]</t>
+  </si>
+  <si>
+    <t>0.24</t>
+  </si>
+  <si>
+    <t>[-0.34, 0.82]</t>
+  </si>
+  <si>
+    <t>2.27</t>
+  </si>
+  <si>
+    <t>[0.66,   8.33]</t>
+  </si>
+  <si>
+    <t>Mean persuasion utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>1.16</t>
+  </si>
+  <si>
+    <t>[ 0.53,  2.49]</t>
+  </si>
+  <si>
+    <t>[ 0.71,  1.32]</t>
+  </si>
+  <si>
+    <t>[  0.73,   1.30]</t>
+  </si>
+  <si>
+    <t>0.31</t>
+  </si>
+  <si>
+    <t>[-0.27, 0.89]</t>
+  </si>
+  <si>
+    <t>2.08</t>
+  </si>
+  <si>
+    <t>[0.52,   9.08]</t>
+  </si>
+  <si>
+    <t>Mean pressure experienced</t>
+  </si>
+  <si>
+    <t>0.35*</t>
+  </si>
+  <si>
+    <t>[ 0.14,  0.83]</t>
+  </si>
+  <si>
+    <t>1.28</t>
+  </si>
+  <si>
+    <t>[ 0.91,  1.81]</t>
+  </si>
+  <si>
+    <t>[  0.77,   1.39]</t>
+  </si>
+  <si>
+    <t>-0.26</t>
+  </si>
+  <si>
+    <t>[-0.82, 0.29]</t>
+  </si>
+  <si>
+    <t>20.33**</t>
+  </si>
+  <si>
+    <t>[2.58, 210.71]</t>
+  </si>
+  <si>
+    <t>Mean pressure utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>0.58</t>
+  </si>
+  <si>
+    <t>[ 0.24,  1.42]</t>
+  </si>
+  <si>
+    <t>[ 0.65,  1.34]</t>
+  </si>
+  <si>
+    <t>0.96</t>
+  </si>
+  <si>
+    <t>[  0.73,   1.28]</t>
+  </si>
+  <si>
+    <t>-0.34</t>
+  </si>
+  <si>
+    <t>[-0.89, 0.22]</t>
+  </si>
+  <si>
+    <t>2.58</t>
+  </si>
+  <si>
+    <t>[0.23,  24.99]</t>
+  </si>
+  <si>
+    <t>Mean pushing experienced</t>
+  </si>
+  <si>
+    <t>0.61</t>
+  </si>
+  <si>
+    <t>[ 0.19,  1.96]</t>
+  </si>
+  <si>
+    <t>1.19</t>
+  </si>
+  <si>
+    <t>[ 0.74,  1.91]</t>
+  </si>
+  <si>
+    <t>0.90</t>
+  </si>
+  <si>
+    <t>[  0.58,   1.40]</t>
+  </si>
+  <si>
+    <t>0.20</t>
+  </si>
+  <si>
+    <t>[-0.63, 1.03]</t>
+  </si>
+  <si>
+    <t>[0.16,  10.84]</t>
+  </si>
+  <si>
+    <t>Mean pushing utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>1.25</t>
+  </si>
+  <si>
+    <t>[ 0.39,  4.09]</t>
+  </si>
+  <si>
+    <t>1.11</t>
+  </si>
+  <si>
+    <t>[ 0.69,  1.79]</t>
+  </si>
+  <si>
+    <t>[  0.72,   1.72]</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>[-0.67, 0.98]</t>
+  </si>
+  <si>
+    <t>0.10*</t>
+  </si>
+  <si>
+    <t>[0.01,   0.91]</t>
+  </si>
+  <si>
+    <t>Mean weartime</t>
+  </si>
+  <si>
+    <t>Mean support received</t>
+  </si>
+  <si>
+    <t>1.30*</t>
+  </si>
+  <si>
+    <t>[ 1.02,  1.66]</t>
+  </si>
+  <si>
+    <t>1.12*</t>
+  </si>
+  <si>
+    <t>[ 1.02,  1.23]</t>
+  </si>
+  <si>
+    <t>1.07</t>
+  </si>
+  <si>
+    <t>[  0.98,   1.16]</t>
+  </si>
+  <si>
+    <t>[ 0.00, 0.31]</t>
+  </si>
+  <si>
+    <t>0.74</t>
+  </si>
+  <si>
+    <t>[0.37,   1.43]</t>
+  </si>
+  <si>
+    <t>Mean support provided (partner's view)</t>
+  </si>
+  <si>
+    <t>1.42**</t>
+  </si>
+  <si>
+    <t>[ 1.11,  1.81]</t>
+  </si>
+  <si>
+    <t>[ 0.88,  1.06]</t>
+  </si>
+  <si>
+    <t>[  0.92,   1.09]</t>
+  </si>
+  <si>
+    <t>-0.08</t>
+  </si>
+  <si>
+    <t>[-0.24, 0.07]</t>
+  </si>
+  <si>
+    <t>0.79</t>
+  </si>
+  <si>
+    <t>[0.46,   1.33]</t>
+  </si>
+  <si>
+    <t>Difference study group 2</t>
+  </si>
+  <si>
+    <t>Difference study group 3</t>
+  </si>
+  <si>
+    <t>Random Effects</t>
+  </si>
+  <si>
+    <t>sd(Intercept)</t>
+  </si>
+  <si>
+    <t>0.77</t>
+  </si>
+  <si>
+    <t>[0.59, 1.04]</t>
+  </si>
+  <si>
+    <t>[0.24, 0.41]</t>
+  </si>
+  <si>
+    <t>0.30</t>
+  </si>
+  <si>
+    <t>[0.23, 0.39]</t>
+  </si>
+  <si>
+    <t>[0.48, 0.80]</t>
+  </si>
+  <si>
+    <t>1.21</t>
+  </si>
+  <si>
+    <t>[0.77, 1.85]</t>
+  </si>
+  <si>
+    <t>sd(Daily persuasion experienced)</t>
+  </si>
+  <si>
+    <t>0.14</t>
+  </si>
+  <si>
+    <t>[0.01, 0.35]</t>
+  </si>
+  <si>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t>[0.07, 0.16]</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>[0.02, 0.08]</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>[0.00, 0.10]</t>
   </si>
   <si>
     <t>0.25</t>
   </si>
   <si>
-    <t>[-0.32, 0.83]</t>
-  </si>
-  <si>
-    <t>2.26</t>
-  </si>
-  <si>
-    <t>[0.66,   8.28]</t>
-  </si>
-  <si>
-    <t>Mean persuasion utilized (partner's view)</t>
-  </si>
-  <si>
-    <t>1.13</t>
-  </si>
-  <si>
-    <t>[ 0.53,  2.44]</t>
-  </si>
-  <si>
-    <t>[ 0.73,  1.36]</t>
-  </si>
-  <si>
-    <t>[  0.73,   1.30]</t>
-  </si>
-  <si>
-    <t>0.32</t>
-  </si>
-  <si>
-    <t>[-0.26, 0.90]</t>
-  </si>
-  <si>
-    <t>2.08</t>
-  </si>
-  <si>
-    <t>[0.52,   8.94]</t>
-  </si>
-  <si>
-    <t>Mean pressure experienced</t>
-  </si>
-  <si>
-    <t>0.35*</t>
-  </si>
-  <si>
-    <t>[ 0.14,  0.83]</t>
-  </si>
-  <si>
-    <t>1.27</t>
-  </si>
-  <si>
-    <t>[ 0.89,  1.80]</t>
-  </si>
-  <si>
-    <t>[  0.77,   1.40]</t>
-  </si>
-  <si>
-    <t>-0.27</t>
-  </si>
-  <si>
-    <t>[-0.83, 0.29]</t>
-  </si>
-  <si>
-    <t>20.64**</t>
-  </si>
-  <si>
-    <t>[2.66, 204.01]</t>
-  </si>
-  <si>
-    <t>Mean pressure utilized (partner's view)</t>
-  </si>
-  <si>
-    <t>0.59</t>
-  </si>
-  <si>
-    <t>[ 0.25,  1.41]</t>
-  </si>
-  <si>
-    <t>[ 0.65,  1.33]</t>
-  </si>
-  <si>
-    <t>[  0.73,   1.28]</t>
-  </si>
-  <si>
-    <t>-0.34</t>
-  </si>
-  <si>
-    <t>[-0.91, 0.21]</t>
-  </si>
-  <si>
-    <t>2.55</t>
-  </si>
-  <si>
-    <t>[0.24,  23.56]</t>
-  </si>
-  <si>
-    <t>Mean pushing experienced</t>
-  </si>
-  <si>
-    <t>0.63</t>
-  </si>
-  <si>
-    <t>[ 0.19,  2.02]</t>
-  </si>
-  <si>
-    <t>1.16</t>
-  </si>
-  <si>
-    <t>[ 0.73,  1.87]</t>
-  </si>
-  <si>
-    <t>0.90</t>
-  </si>
-  <si>
-    <t>[  0.58,   1.41]</t>
-  </si>
-  <si>
-    <t>0.20</t>
-  </si>
-  <si>
-    <t>[-0.64, 1.04]</t>
-  </si>
-  <si>
-    <t>[0.17,  11.18]</t>
-  </si>
-  <si>
-    <t>Mean pushing utilized (partner's view)</t>
-  </si>
-  <si>
-    <t>1.30</t>
-  </si>
-  <si>
-    <t>[ 0.41,  4.24]</t>
-  </si>
-  <si>
-    <t>[ 0.67,  1.77]</t>
-  </si>
-  <si>
-    <t>1.11</t>
-  </si>
-  <si>
-    <t>[  0.72,   1.72]</t>
-  </si>
-  <si>
-    <t>0.15</t>
-  </si>
-  <si>
-    <t>[-0.69, 0.99]</t>
-  </si>
-  <si>
-    <t>0.10*</t>
-  </si>
-  <si>
-    <t>[0.01,   0.95]</t>
-  </si>
-  <si>
-    <t>Mean weartime</t>
-  </si>
-  <si>
-    <t>Mean support received</t>
-  </si>
-  <si>
-    <t>1.28*</t>
-  </si>
-  <si>
-    <t>[ 1.01,  1.65]</t>
-  </si>
-  <si>
-    <t>1.12*</t>
-  </si>
-  <si>
-    <t>[ 1.02,  1.23]</t>
-  </si>
-  <si>
-    <t>1.07</t>
-  </si>
-  <si>
-    <t>[  0.99,   1.16]</t>
-  </si>
-  <si>
-    <t>[ 0.00, 0.31]</t>
-  </si>
-  <si>
-    <t>0.74</t>
-  </si>
-  <si>
-    <t>[0.37,   1.42]</t>
-  </si>
-  <si>
-    <t>Mean support provided (partner's view)</t>
-  </si>
-  <si>
-    <t>1.40**</t>
-  </si>
-  <si>
-    <t>[ 1.09,  1.79]</t>
-  </si>
-  <si>
-    <t>[ 0.89,  1.06]</t>
-  </si>
-  <si>
-    <t>[  0.92,   1.09]</t>
-  </si>
-  <si>
-    <t>-0.08</t>
-  </si>
-  <si>
-    <t>[-0.24, 0.08]</t>
-  </si>
-  <si>
-    <t>0.79</t>
-  </si>
-  <si>
-    <t>[0.46,   1.33]</t>
-  </si>
-  <si>
-    <t>Difference study group 2</t>
-  </si>
-  <si>
-    <t>Difference study group 3</t>
-  </si>
-  <si>
-    <t>Random Effects</t>
-  </si>
-  <si>
-    <t>sd(Intercept)</t>
-  </si>
-  <si>
-    <t>0.77</t>
-  </si>
-  <si>
-    <t>[0.58, 1.03]</t>
-  </si>
-  <si>
-    <t>0.31</t>
-  </si>
-  <si>
-    <t>[0.24, 0.41]</t>
-  </si>
-  <si>
-    <t>0.30</t>
-  </si>
-  <si>
-    <t>[0.23, 0.39]</t>
-  </si>
-  <si>
-    <t>0.60</t>
-  </si>
-  <si>
-    <t>[0.48, 0.79]</t>
-  </si>
-  <si>
-    <t>1.22</t>
-  </si>
-  <si>
-    <t>[0.77, 1.86]</t>
-  </si>
-  <si>
-    <t>sd(Daily persuasion experienced)</t>
-  </si>
-  <si>
-    <t>0.14</t>
-  </si>
-  <si>
-    <t>[0.01, 0.36]</t>
-  </si>
-  <si>
-    <t>0.11</t>
-  </si>
-  <si>
-    <t>[0.07, 0.16]</t>
-  </si>
-  <si>
-    <t>0.05</t>
-  </si>
-  <si>
-    <t>[0.02, 0.08]</t>
-  </si>
-  <si>
-    <t>0.04</t>
-  </si>
-  <si>
-    <t>[0.00, 0.10]</t>
-  </si>
-  <si>
-    <t>[0.02, 0.57]</t>
+    <t>[0.02, 0.56]</t>
   </si>
   <si>
     <t>sd(Daily persuasion utilized (partner's view))</t>
   </si>
   <si>
-    <t>0.18</t>
-  </si>
-  <si>
-    <t>[0.01, 0.39]</t>
+    <t>[0.01, 0.37]</t>
   </si>
   <si>
     <t>0.08</t>
@@ -769,40 +766,37 @@
     <t>0.52</t>
   </si>
   <si>
-    <t>[0.14, 1.04]</t>
+    <t>[0.14, 1.05]</t>
   </si>
   <si>
     <t>sd(Daily pressure experienced)</t>
   </si>
   <si>
-    <t>0.22</t>
-  </si>
-  <si>
-    <t>[0.01, 0.81]</t>
+    <t>[0.01, 0.85]</t>
   </si>
   <si>
     <t>[0.00, 0.21]</t>
   </si>
   <si>
-    <t>[0.00, 0.13]</t>
+    <t>[0.00, 0.14]</t>
   </si>
   <si>
     <t>0.07</t>
   </si>
   <si>
-    <t>[0.00, 0.25]</t>
-  </si>
-  <si>
-    <t>[0.09, 2.33]</t>
+    <t>[0.00, 0.26]</t>
+  </si>
+  <si>
+    <t>[0.10, 2.35]</t>
   </si>
   <si>
     <t>sd(Daily pressure utilized (partner's view))</t>
   </si>
   <si>
-    <t>0.35</t>
-  </si>
-  <si>
-    <t>[0.02, 1.10]</t>
+    <t>0.36</t>
+  </si>
+  <si>
+    <t>[0.02, 1.14]</t>
   </si>
   <si>
     <t>[0.00, 0.17]</t>
@@ -814,22 +808,19 @@
     <t>[0.00, 0.11]</t>
   </si>
   <si>
-    <t>[0.00, 0.26]</t>
-  </si>
-  <si>
     <t>0.80</t>
   </si>
   <si>
-    <t>[0.04, 2.73]</t>
+    <t>[0.04, 2.74]</t>
   </si>
   <si>
     <t>sd(Daily pushing experienced)</t>
   </si>
   <si>
-    <t>0.55</t>
-  </si>
-  <si>
-    <t>[0.26, 0.97]</t>
+    <t>0.56</t>
+  </si>
+  <si>
+    <t>[0.27, 1.01]</t>
   </si>
   <si>
     <t>[0.01, 0.16]</t>
@@ -838,22 +829,16 @@
     <t>[0.01, 0.14]</t>
   </si>
   <si>
-    <t>[0.00, 0.14]</t>
-  </si>
-  <si>
     <t>0.26</t>
   </si>
   <si>
-    <t>[0.02, 0.64]</t>
+    <t>[0.01, 0.64]</t>
   </si>
   <si>
     <t>sd(Daily pushing utilized (partner's view))</t>
   </si>
   <si>
-    <t>0.19</t>
-  </si>
-  <si>
-    <t>[0.01, 0.52]</t>
+    <t>[0.01, 0.47]</t>
   </si>
   <si>
     <t>[0.01, 0.15]</t>
@@ -862,10 +847,7 @@
     <t>[0.00, 0.15]</t>
   </si>
   <si>
-    <t>0.27</t>
-  </si>
-  <si>
-    <t>[0.01, 1.01]</t>
+    <t>[0.01, 1.00]</t>
   </si>
   <si>
     <t>Additional Parameters</t>
@@ -874,7 +856,7 @@
     <t>sigma</t>
   </si>
   <si>
-    <t>0.66</t>
+    <t>0.67</t>
   </si>
   <si>
     <t>[0.64, 0.69]</t>
@@ -893,7 +875,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -918,19 +900,19 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -985,7 +967,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -994,7 +976,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1295,61 +1277,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="38.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.76953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.76953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.2265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.2265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.2265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.46484375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.06640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.06640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.1328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1384,7 +1366,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -1419,7 +1401,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
         <v>24</v>
       </c>
@@ -1454,7 +1436,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
         <v>25</v>
       </c>
@@ -1489,11 +1471,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="12" t="s">
         <v>37</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1524,7 +1506,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
         <v>45</v>
       </c>
@@ -1534,7 +1516,7 @@
       <c r="C7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -1559,7 +1541,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="7" t="s">
         <v>55</v>
       </c>
@@ -1594,7 +1576,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="7" t="s">
         <v>65</v>
       </c>
@@ -1629,11 +1611,11 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="12" t="s">
         <v>75</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1651,7 +1633,7 @@
       <c r="G10" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="1" t="s">
         <v>79</v>
       </c>
       <c r="I10" s="1" t="s">
@@ -1664,7 +1646,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="7" t="s">
         <v>82</v>
       </c>
@@ -1699,7 +1681,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="7" t="s">
         <v>93</v>
       </c>
@@ -1734,7 +1716,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="7" t="s">
         <v>103</v>
       </c>
@@ -1745,7 +1727,7 @@
         <v>104</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>105</v>
@@ -1769,7 +1751,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
         <v>111</v>
       </c>
@@ -1788,7 +1770,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="7" t="s">
         <v>114</v>
       </c>
@@ -1823,7 +1805,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" s="7" t="s">
         <v>125</v>
       </c>
@@ -1858,7 +1840,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" s="7" t="s">
         <v>135</v>
       </c>
@@ -1873,7 +1855,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" s="7" t="s">
         <v>136</v>
       </c>
@@ -1888,7 +1870,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" s="7" t="s">
         <v>137</v>
       </c>
@@ -1903,7 +1885,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" s="10" t="s">
         <v>138</v>
       </c>
@@ -1938,7 +1920,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" s="7" t="s">
         <v>139</v>
       </c>
@@ -1949,7 +1931,7 @@
         <v>141</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>101</v>
+        <v>34</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>142</v>
@@ -1973,7 +1955,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" s="7" t="s">
         <v>149</v>
       </c>
@@ -1984,13 +1966,13 @@
         <v>151</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>152</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>153</v>
@@ -2008,7 +1990,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" s="7" t="s">
         <v>158</v>
       </c>
@@ -2043,7 +2025,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" s="7" t="s">
         <v>168</v>
       </c>
@@ -2060,97 +2042,97 @@
         <v>171</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>68</v>
+        <v>172</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>140</v>
+        <v>63</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.75">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>37</v>
+        <v>191</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>191</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.75">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2167,79 +2149,79 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.75">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>68</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>39</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.75">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2252,9 +2234,9 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2267,53 +2249,53 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32" s="10" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K32" s="11" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.75">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>223</v>
+        <v>154</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>224</v>
@@ -2325,306 +2307,306 @@
         <v>226</v>
       </c>
       <c r="H33" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I33" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="J33" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="J33" s="1" t="s">
+      <c r="K33" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="K33" s="1" t="s">
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A34" s="7" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A34" s="7" t="s">
+      <c r="B34" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="H34" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="I34" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="J34" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35" s="7" t="s">
         <v>241</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="F35" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>246</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>79</v>
       </c>
       <c r="I35" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="J35" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="J35" s="1" t="s">
+      <c r="K35" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="K35" s="1" t="s">
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A36" s="7" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A36" s="7" t="s">
+      <c r="B36" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>252</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>79</v>
       </c>
       <c r="E36" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="I36" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A37" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A38" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A39" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A37" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A38" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A39" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>79</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.75">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40" s="10" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="J40" s="11" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="K40" s="11" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.75">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41" s="8" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>49</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42" s="7"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43" s="7"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A44" s="7"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A45" s="7"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46" s="7"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A47" s="7"/>
     </row>
   </sheetData>
@@ -2639,6 +2621,6 @@
     <mergeCell ref="A4:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Output/AllModels_sensitivitySupport_12000.xlsx
+++ b/Output/AllModels_sensitivitySupport_12000.xlsx
@@ -1,881 +1,877 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pascku\Repos\02TimeAndTiesControl\Output\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ADAAFD7-71E3-46BF-908F-6700C27E533B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="283">
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Subjective MVPA Hurdle Lognormal</t>
-  </si>
-  <si>
-    <t>Device-Based MVPA Log (Gaussian)</t>
-  </si>
-  <si>
-    <t>Mood Gaussian</t>
-  </si>
-  <si>
-    <t>Reactance Dichotome</t>
-  </si>
-  <si>
-    <t>exp(Est.)_hu</t>
-  </si>
-  <si>
-    <t>95% CI_hu</t>
-  </si>
-  <si>
-    <t>exp(Est.)_nonzero</t>
-  </si>
-  <si>
-    <t>95% CI_nonzero</t>
-  </si>
-  <si>
-    <t>exp(Est.)</t>
-  </si>
-  <si>
-    <t>95% CI</t>
-  </si>
-  <si>
-    <t>Est.</t>
-  </si>
-  <si>
-    <t>OR</t>
-  </si>
-  <si>
-    <t>Intercept</t>
-  </si>
-  <si>
-    <t>0.27***</t>
-  </si>
-  <si>
-    <t>[ 0.20,  0.38]</t>
-  </si>
-  <si>
-    <t>36.71***</t>
-  </si>
-  <si>
-    <t>[31.96, 42.07]</t>
-  </si>
-  <si>
-    <t>112.12***</t>
-  </si>
-  <si>
-    <t>[100.65, 124.93]</t>
-  </si>
-  <si>
-    <t>3.69***</t>
-  </si>
-  <si>
-    <t>[ 3.47, 3.90]</t>
-  </si>
-  <si>
-    <t>0.33**</t>
-  </si>
-  <si>
-    <t>[0.17,   0.64]</t>
-  </si>
-  <si>
-    <t>Within-Person Effects</t>
-  </si>
-  <si>
-    <t>Daily persuasion experienced</t>
-  </si>
-  <si>
-    <t>1.21**</t>
-  </si>
-  <si>
-    <t>[ 1.06,  1.39]</t>
-  </si>
-  <si>
-    <t>0.99</t>
-  </si>
-  <si>
-    <t>[ 0.94,  1.05]</t>
-  </si>
-  <si>
-    <t>1.01</t>
-  </si>
-  <si>
-    <t>[  0.98,   1.04]</t>
-  </si>
-  <si>
-    <t>-0.04</t>
-  </si>
-  <si>
-    <t>[-0.08, 0.00]</t>
-  </si>
-  <si>
-    <t>0.91</t>
-  </si>
-  <si>
-    <t>[0.73,   1.11]</t>
-  </si>
-  <si>
-    <t>Daily persuasion utilized (partner's view)</t>
-  </si>
-  <si>
-    <t>1.08</t>
-  </si>
-  <si>
-    <t>[ 0.95,  1.24]</t>
-  </si>
-  <si>
-    <t>1.00</t>
-  </si>
-  <si>
-    <t>[ 0.96,  1.05]</t>
-  </si>
-  <si>
-    <t>-0.01</t>
-  </si>
-  <si>
-    <t>[-0.05, 0.04]</t>
-  </si>
-  <si>
-    <t>1.22</t>
-  </si>
-  <si>
-    <t>[0.90,   1.72]</t>
-  </si>
-  <si>
-    <t>Daily pressure experienced</t>
-  </si>
-  <si>
-    <t>[ 0.65,  1.30]</t>
-  </si>
-  <si>
-    <t>0.92</t>
-  </si>
-  <si>
-    <t>[ 0.83,  1.01]</t>
-  </si>
-  <si>
-    <t>0.95</t>
-  </si>
-  <si>
-    <t>[  0.88,   1.01]</t>
-  </si>
-  <si>
-    <t>-0.03</t>
-  </si>
-  <si>
-    <t>[-0.14, 0.07]</t>
-  </si>
-  <si>
-    <t>1.96*</t>
-  </si>
-  <si>
-    <t>[1.03,   4.34]</t>
-  </si>
-  <si>
-    <t>Daily pressure utilized (partner's view)</t>
-  </si>
-  <si>
-    <t>1.62*</t>
-  </si>
-  <si>
-    <t>[ 1.09,  2.74]</t>
-  </si>
-  <si>
-    <t>[ 0.87,  1.04]</t>
-  </si>
-  <si>
-    <t>0.98</t>
-  </si>
-  <si>
-    <t>[  0.92,   1.05]</t>
-  </si>
-  <si>
-    <t>-0.02</t>
-  </si>
-  <si>
-    <t>[-0.14, 0.08]</t>
-  </si>
-  <si>
-    <t>1.32</t>
-  </si>
-  <si>
-    <t>[0.53,   3.93]</t>
-  </si>
-  <si>
-    <t>Daily pushing experienced</t>
-  </si>
-  <si>
-    <t>0.84</t>
-  </si>
-  <si>
-    <t>[ 0.63,  1.16]</t>
-  </si>
-  <si>
-    <t>0.97</t>
-  </si>
-  <si>
-    <t>[ 0.91,  1.03]</t>
-  </si>
-  <si>
-    <t>[  0.96,   1.06]</t>
-  </si>
-  <si>
-    <t>[-0.08, 0.05]</t>
-  </si>
-  <si>
-    <t>1.40*</t>
-  </si>
-  <si>
-    <t>[1.08,   1.85]</t>
-  </si>
-  <si>
-    <t>Daily pushing utilized (partner's view)</t>
-  </si>
-  <si>
-    <t>1.17</t>
-  </si>
-  <si>
-    <t>[ 0.95,  1.50]</t>
-  </si>
-  <si>
-    <t>[ 0.89,  1.01]</t>
-  </si>
-  <si>
-    <t>[  0.95,   1.04]</t>
-  </si>
-  <si>
-    <t>0.06</t>
-  </si>
-  <si>
-    <t>[-0.01, 0.12]</t>
-  </si>
-  <si>
-    <t>[0.63,   1.43]</t>
-  </si>
-  <si>
-    <t>Own actionplan</t>
-  </si>
-  <si>
-    <t>9.73***</t>
-  </si>
-  <si>
-    <t>[ 7.94, 12.01]</t>
-  </si>
-  <si>
-    <t>1.35***</t>
-  </si>
-  <si>
-    <t>[ 1.23,  1.48]</t>
-  </si>
-  <si>
-    <t>1.06*</t>
-  </si>
-  <si>
-    <t>[  1.01,   1.11]</t>
-  </si>
-  <si>
-    <t>0.09*</t>
-  </si>
-  <si>
-    <t>[ 0.01, 0.16]</t>
-  </si>
-  <si>
-    <t>0.94</t>
-  </si>
-  <si>
-    <t>[0.50,   1.79]</t>
-  </si>
-  <si>
-    <t>Partner actionplan</t>
-  </si>
-  <si>
-    <t>1.02</t>
-  </si>
-  <si>
-    <t>[ 0.83,  1.25]</t>
-  </si>
-  <si>
-    <t>1.04</t>
-  </si>
-  <si>
-    <t>[ 0.96,  1.13]</t>
-  </si>
-  <si>
-    <t>[  0.99,   1.09]</t>
-  </si>
-  <si>
-    <t>-0.06</t>
-  </si>
-  <si>
-    <t>[-0.13, 0.02]</t>
-  </si>
-  <si>
-    <t>0.93</t>
-  </si>
-  <si>
-    <t>[0.52,   1.67]</t>
-  </si>
-  <si>
-    <t>Day</t>
-  </si>
-  <si>
-    <t>[ 0.69,  1.26]</t>
-  </si>
-  <si>
-    <t>[ 0.88,  1.12]</t>
-  </si>
-  <si>
-    <t>[  0.91,   1.04]</t>
-  </si>
-  <si>
-    <t>0.26***</t>
-  </si>
-  <si>
-    <t>[ 0.16, 0.37]</t>
-  </si>
-  <si>
-    <t>1.54</t>
-  </si>
-  <si>
-    <t>[0.70,   3.35]</t>
-  </si>
-  <si>
-    <t>Daily weartime</t>
-  </si>
-  <si>
-    <t>1.00***</t>
-  </si>
-  <si>
-    <t>[  1.00,   1.00]</t>
-  </si>
-  <si>
-    <t>Daily support received</t>
-  </si>
-  <si>
-    <t>1.70***</t>
-  </si>
-  <si>
-    <t>[ 1.56,  1.87]</t>
-  </si>
-  <si>
-    <t>1.07***</t>
-  </si>
-  <si>
-    <t>[ 1.05,  1.10]</t>
-  </si>
-  <si>
-    <t>1.04***</t>
-  </si>
-  <si>
-    <t>[  1.02,   1.06]</t>
-  </si>
-  <si>
-    <t>0.08***</t>
-  </si>
-  <si>
-    <t>[ 0.05, 0.11]</t>
-  </si>
-  <si>
-    <t>0.83*</t>
-  </si>
-  <si>
-    <t>[0.70,   0.97]</t>
-  </si>
-  <si>
-    <t>Daily support provided (partner's view)</t>
-  </si>
-  <si>
-    <t>1.39***</t>
-  </si>
-  <si>
-    <t>[ 1.28,  1.52]</t>
-  </si>
-  <si>
-    <t>1.05***</t>
-  </si>
-  <si>
-    <t>[ 1.02,  1.08]</t>
-  </si>
-  <si>
-    <t>[  0.99,   1.03]</t>
-  </si>
-  <si>
-    <t>0.04*</t>
-  </si>
-  <si>
-    <t>[ 0.01, 0.07]</t>
-  </si>
-  <si>
-    <t>0.86</t>
-  </si>
-  <si>
-    <t>[0.73,   1.02]</t>
-  </si>
-  <si>
-    <t>Is a Weekend</t>
-  </si>
-  <si>
-    <t>JITAI received</t>
-  </si>
-  <si>
-    <t>Days post skilled support intervention</t>
-  </si>
-  <si>
-    <t>Between-Person Effects</t>
-  </si>
-  <si>
-    <t>Mean persuasion experienced</t>
-  </si>
-  <si>
-    <t>1.34</t>
-  </si>
-  <si>
-    <t>[ 0.61,  2.88]</t>
-  </si>
-  <si>
-    <t>[ 0.67,  1.25]</t>
-  </si>
-  <si>
-    <t>1.06</t>
-  </si>
-  <si>
-    <t>[  0.79,   1.41]</t>
-  </si>
-  <si>
-    <t>0.24</t>
-  </si>
-  <si>
-    <t>[-0.34, 0.82]</t>
-  </si>
-  <si>
-    <t>2.27</t>
-  </si>
-  <si>
-    <t>[0.66,   8.33]</t>
-  </si>
-  <si>
-    <t>Mean persuasion utilized (partner's view)</t>
-  </si>
-  <si>
-    <t>1.16</t>
-  </si>
-  <si>
-    <t>[ 0.53,  2.49]</t>
-  </si>
-  <si>
-    <t>[ 0.71,  1.32]</t>
-  </si>
-  <si>
-    <t>[  0.73,   1.30]</t>
-  </si>
-  <si>
-    <t>0.31</t>
-  </si>
-  <si>
-    <t>[-0.27, 0.89]</t>
-  </si>
-  <si>
-    <t>2.08</t>
-  </si>
-  <si>
-    <t>[0.52,   9.08]</t>
-  </si>
-  <si>
-    <t>Mean pressure experienced</t>
-  </si>
-  <si>
-    <t>0.35*</t>
-  </si>
-  <si>
-    <t>[ 0.14,  0.83]</t>
-  </si>
-  <si>
-    <t>1.28</t>
-  </si>
-  <si>
-    <t>[ 0.91,  1.81]</t>
-  </si>
-  <si>
-    <t>[  0.77,   1.39]</t>
-  </si>
-  <si>
-    <t>-0.26</t>
-  </si>
-  <si>
-    <t>[-0.82, 0.29]</t>
-  </si>
-  <si>
-    <t>20.33**</t>
-  </si>
-  <si>
-    <t>[2.58, 210.71]</t>
-  </si>
-  <si>
-    <t>Mean pressure utilized (partner's view)</t>
-  </si>
-  <si>
-    <t>0.58</t>
-  </si>
-  <si>
-    <t>[ 0.24,  1.42]</t>
-  </si>
-  <si>
-    <t>[ 0.65,  1.34]</t>
-  </si>
-  <si>
-    <t>0.96</t>
-  </si>
-  <si>
-    <t>[  0.73,   1.28]</t>
-  </si>
-  <si>
-    <t>-0.34</t>
-  </si>
-  <si>
-    <t>[-0.89, 0.22]</t>
-  </si>
-  <si>
-    <t>2.58</t>
-  </si>
-  <si>
-    <t>[0.23,  24.99]</t>
-  </si>
-  <si>
-    <t>Mean pushing experienced</t>
-  </si>
-  <si>
-    <t>0.61</t>
-  </si>
-  <si>
-    <t>[ 0.19,  1.96]</t>
-  </si>
-  <si>
-    <t>1.19</t>
-  </si>
-  <si>
-    <t>[ 0.74,  1.91]</t>
-  </si>
-  <si>
-    <t>0.90</t>
-  </si>
-  <si>
-    <t>[  0.58,   1.40]</t>
-  </si>
-  <si>
-    <t>0.20</t>
-  </si>
-  <si>
-    <t>[-0.63, 1.03]</t>
-  </si>
-  <si>
-    <t>[0.16,  10.84]</t>
-  </si>
-  <si>
-    <t>Mean pushing utilized (partner's view)</t>
-  </si>
-  <si>
-    <t>1.25</t>
-  </si>
-  <si>
-    <t>[ 0.39,  4.09]</t>
-  </si>
-  <si>
-    <t>1.11</t>
-  </si>
-  <si>
-    <t>[ 0.69,  1.79]</t>
-  </si>
-  <si>
-    <t>[  0.72,   1.72]</t>
-  </si>
-  <si>
-    <t>0.15</t>
-  </si>
-  <si>
-    <t>[-0.67, 0.98]</t>
-  </si>
-  <si>
-    <t>0.10*</t>
-  </si>
-  <si>
-    <t>[0.01,   0.91]</t>
-  </si>
-  <si>
-    <t>Mean weartime</t>
-  </si>
-  <si>
-    <t>Mean support received</t>
-  </si>
-  <si>
-    <t>1.30*</t>
-  </si>
-  <si>
-    <t>[ 1.02,  1.66]</t>
-  </si>
-  <si>
-    <t>1.12*</t>
-  </si>
-  <si>
-    <t>[ 1.02,  1.23]</t>
-  </si>
-  <si>
-    <t>1.07</t>
-  </si>
-  <si>
-    <t>[  0.98,   1.16]</t>
-  </si>
-  <si>
-    <t>[ 0.00, 0.31]</t>
-  </si>
-  <si>
-    <t>0.74</t>
-  </si>
-  <si>
-    <t>[0.37,   1.43]</t>
-  </si>
-  <si>
-    <t>Mean support provided (partner's view)</t>
-  </si>
-  <si>
-    <t>1.42**</t>
-  </si>
-  <si>
-    <t>[ 1.11,  1.81]</t>
-  </si>
-  <si>
-    <t>[ 0.88,  1.06]</t>
-  </si>
-  <si>
-    <t>[  0.92,   1.09]</t>
-  </si>
-  <si>
-    <t>-0.08</t>
-  </si>
-  <si>
-    <t>[-0.24, 0.07]</t>
-  </si>
-  <si>
-    <t>0.79</t>
-  </si>
-  <si>
-    <t>[0.46,   1.33]</t>
-  </si>
-  <si>
-    <t>Difference study group 2</t>
-  </si>
-  <si>
-    <t>Difference study group 3</t>
-  </si>
-  <si>
-    <t>Random Effects</t>
-  </si>
-  <si>
-    <t>sd(Intercept)</t>
-  </si>
-  <si>
-    <t>0.77</t>
-  </si>
-  <si>
-    <t>[0.59, 1.04]</t>
-  </si>
-  <si>
-    <t>[0.24, 0.41]</t>
-  </si>
-  <si>
-    <t>0.30</t>
-  </si>
-  <si>
-    <t>[0.23, 0.39]</t>
-  </si>
-  <si>
-    <t>[0.48, 0.80]</t>
-  </si>
-  <si>
-    <t>1.21</t>
-  </si>
-  <si>
-    <t>[0.77, 1.85]</t>
-  </si>
-  <si>
-    <t>sd(Daily persuasion experienced)</t>
-  </si>
-  <si>
-    <t>0.14</t>
-  </si>
-  <si>
-    <t>[0.01, 0.35]</t>
-  </si>
-  <si>
-    <t>0.11</t>
-  </si>
-  <si>
-    <t>[0.07, 0.16]</t>
-  </si>
-  <si>
-    <t>0.05</t>
-  </si>
-  <si>
-    <t>[0.02, 0.08]</t>
-  </si>
-  <si>
-    <t>0.04</t>
-  </si>
-  <si>
-    <t>[0.00, 0.10]</t>
-  </si>
-  <si>
-    <t>0.25</t>
-  </si>
-  <si>
-    <t>[0.02, 0.56]</t>
-  </si>
-  <si>
-    <t>sd(Daily persuasion utilized (partner's view))</t>
-  </si>
-  <si>
-    <t>[0.01, 0.37]</t>
-  </si>
-  <si>
-    <t>0.08</t>
-  </si>
-  <si>
-    <t>[0.04, 0.13]</t>
-  </si>
-  <si>
-    <t>[0.02, 0.09]</t>
-  </si>
-  <si>
-    <t>[0.01, 0.12]</t>
-  </si>
-  <si>
-    <t>0.52</t>
-  </si>
-  <si>
-    <t>[0.14, 1.05]</t>
-  </si>
-  <si>
-    <t>sd(Daily pressure experienced)</t>
-  </si>
-  <si>
-    <t>[0.01, 0.85]</t>
-  </si>
-  <si>
-    <t>[0.00, 0.21]</t>
-  </si>
-  <si>
-    <t>[0.00, 0.14]</t>
-  </si>
-  <si>
-    <t>0.07</t>
-  </si>
-  <si>
-    <t>[0.00, 0.26]</t>
-  </si>
-  <si>
-    <t>[0.10, 2.35]</t>
-  </si>
-  <si>
-    <t>sd(Daily pressure utilized (partner's view))</t>
-  </si>
-  <si>
-    <t>0.36</t>
-  </si>
-  <si>
-    <t>[0.02, 1.14]</t>
-  </si>
-  <si>
-    <t>[0.00, 0.17]</t>
-  </si>
-  <si>
-    <t>0.03</t>
-  </si>
-  <si>
-    <t>[0.00, 0.11]</t>
-  </si>
-  <si>
-    <t>0.80</t>
-  </si>
-  <si>
-    <t>[0.04, 2.74]</t>
-  </si>
-  <si>
-    <t>sd(Daily pushing experienced)</t>
-  </si>
-  <si>
-    <t>0.56</t>
-  </si>
-  <si>
-    <t>[0.27, 1.01]</t>
-  </si>
-  <si>
-    <t>[0.01, 0.16]</t>
-  </si>
-  <si>
-    <t>[0.01, 0.14]</t>
-  </si>
-  <si>
-    <t>0.26</t>
-  </si>
-  <si>
-    <t>[0.01, 0.64]</t>
-  </si>
-  <si>
-    <t>sd(Daily pushing utilized (partner's view))</t>
-  </si>
-  <si>
-    <t>[0.01, 0.47]</t>
-  </si>
-  <si>
-    <t>[0.01, 0.15]</t>
-  </si>
-  <si>
-    <t>[0.00, 0.15]</t>
-  </si>
-  <si>
-    <t>[0.01, 1.00]</t>
-  </si>
-  <si>
-    <t>Additional Parameters</t>
-  </si>
-  <si>
-    <t>sigma</t>
-  </si>
-  <si>
-    <t>0.67</t>
-  </si>
-  <si>
-    <t>[0.64, 0.69]</t>
-  </si>
-  <si>
-    <t>0.57</t>
-  </si>
-  <si>
-    <t>[0.56, 0.59]</t>
-  </si>
-  <si>
-    <t>[0.93, 0.97]</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="284">
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Subjective MVPA Hurdle Lognormal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Device-Based MVPA Log (Gaussian)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mood Gaussian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reactance Dichotome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exp(Est.)_hu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95% CI_hu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exp(Est.)_nonzero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95% CI_nonzero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exp(Est.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95% CI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Est.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intercept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.28***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.20,  0.38]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.74***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[32.02, 42.11]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111.93***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[100.64, 124.59]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 3.48, 3.90]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.34**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.17,   0.65]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Within-Person Effects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily persuasion experienced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.06,  1.39]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.94,  1.05]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.98,   1.04]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.08, 0.00]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.73,   1.11]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily persuasion utilized (partner's view)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.95,  1.24]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.96,  1.05]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.05, 0.04]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.91,   1.75]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily pressure experienced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.65,  1.30]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.83,  1.01]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.88,   1.01]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.14, 0.07]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1.03,   4.40]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily pressure utilized (partner's view)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.08,  2.75]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.87,  1.04]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.92,   1.05]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.14, 0.08]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.50,   4.25]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily pushing experienced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.63,  1.16]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.91,  1.03]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.96,   1.06]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.07, 0.05]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1.08,   1.86]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily pushing utilized (partner's view)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.95,  1.50]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.89,  1.01]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.95,   1.04]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.01, 0.13]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.63,   1.45]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Own actionplan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 7.90, 12.02]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.23,  1.48]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  1.01,   1.11]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.09*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.01, 0.16]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.49,   1.79]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partner actionplan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.83,  1.25]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.96,  1.13]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.99,   1.09]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.13, 0.02]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.52,   1.70]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.69,  1.26]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.88,  1.12]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.91,   1.04]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.26***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.16, 0.37]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.69,   3.45]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily weartime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  1.00,   1.00]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily support received</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.56,  1.87]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.05,  1.10]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  1.02,   1.06]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.08***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.05, 0.11]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.83*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.70,   0.97]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily support provided (partner's view)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.28,  1.52]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.02,  1.08]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.99,   1.03]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.04*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.01, 0.07]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.73,   1.02]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is a Weekend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JITAI received</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Days post skilled support intervention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Between-Person Effects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean persuasion experienced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.62,  2.85]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.67,  1.25]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.79,   1.40]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.33, 0.83]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.54,   9.48]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean persuasion utilized (partner's view)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.54,  2.45]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.70,  1.31]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.73,   1.30]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.25, 0.90]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.49,  12.96]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean pressure experienced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.14,  0.83]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.91,  1.81]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.78,   1.40]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.82, 0.29]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.79**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2.67, 491.47]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean pressure utilized (partner's view)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.24,  1.43]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.65,  1.33]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.73,   1.29]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.89, 0.22]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.10,  24.75]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean pushing experienced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.19,  1.94]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.74,  1.92]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.58,   1.41]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.63, 1.05]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.08,  11.22]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean pushing utilized (partner's view)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.39,  4.00]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.69,  1.81]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.71,   1.73]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.68, 1.01]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.05*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00,   0.71]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean weartime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean support received</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.02,  1.67]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.02,  1.23]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.98,   1.16]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.01, 0.31]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.39,   1.53]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean support provided (partner's view)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.10,  1.81]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.88,  1.06]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.92,   1.09]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.24, 0.07]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.44,   1.33]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Difference study group 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Difference study group 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Random Effects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Intercept)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.59, 1.04]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.24, 0.41]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.23, 0.39]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.48, 0.79]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.78, 1.92]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Daily persuasion experienced)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.36]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.07, 0.16]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.02, 0.08]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.10]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.02, 0.57]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Daily persuasion utilized (partner's view))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.04, 0.13]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.02, 0.09]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.12]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.14, 1.05]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Daily pressure experienced)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.86]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.22]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.14]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.25]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.09, 2.36]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Daily pressure utilized (partner's view))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.02, 1.13]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.17]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.11]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.26]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.04, 2.82]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Daily pushing experienced)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.27, 0.99]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.16]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.14]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.64]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Daily pushing utilized (partner's view))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.47]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.15]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.15]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 1.04]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Additional Parameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sigma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.64, 0.69]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.56, 0.59]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.93, 0.97]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -889,22 +885,16 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <b/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <i/>
     </font>
   </fonts>
   <fills count="2">
@@ -924,28 +914,20 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -961,38 +943,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1274,64 +1238,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="37.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.46484375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.86328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.06640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.86328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.06640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.1328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.796875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1366,7 +1315,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -1401,43 +1350,43 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A4" s="10" t="s">
+    <row r="4">
+      <c r="A4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A5" s="7" t="s">
+    <row r="5">
+      <c r="A5" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -1471,11 +1420,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A6" s="7" t="s">
+    <row r="6">
+      <c r="A6" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1506,8 +1455,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A7" s="7" t="s">
+    <row r="7">
+      <c r="A7" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1541,8 +1490,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A8" s="7" t="s">
+    <row r="8">
+      <c r="A8" s="8" t="s">
         <v>55</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1576,8 +1525,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A9" s="7" t="s">
+    <row r="9">
+      <c r="A9" s="8" t="s">
         <v>65</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1611,11 +1560,11 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A10" s="7" t="s">
+    <row r="10">
+      <c r="A10" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1646,8 +1595,8 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A11" s="7" t="s">
+    <row r="11">
+      <c r="A11" s="8" t="s">
         <v>82</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -1681,8 +1630,8 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A12" s="7" t="s">
+    <row r="12">
+      <c r="A12" s="8" t="s">
         <v>93</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1716,24 +1665,24 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A13" s="7" t="s">
+    <row r="13">
+      <c r="A13" s="8" t="s">
         <v>103</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>104</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>105</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>106</v>
@@ -1751,8 +1700,8 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A14" s="7" t="s">
+    <row r="14">
+      <c r="A14" s="8" t="s">
         <v>111</v>
       </c>
       <c r="B14" s="1"/>
@@ -1770,8 +1719,8 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A15" s="7" t="s">
+    <row r="15">
+      <c r="A15" s="8" t="s">
         <v>114</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -1805,8 +1754,8 @@
         <v>124</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A16" s="7" t="s">
+    <row r="16">
+      <c r="A16" s="8" t="s">
         <v>125</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -1840,8 +1789,8 @@
         <v>134</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A17" s="7" t="s">
+    <row r="17">
+      <c r="A17" s="8" t="s">
         <v>135</v>
       </c>
       <c r="B17" s="1"/>
@@ -1855,8 +1804,8 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A18" s="7" t="s">
+    <row r="18">
+      <c r="A18" s="8" t="s">
         <v>136</v>
       </c>
       <c r="B18" s="1"/>
@@ -1870,8 +1819,8 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A19" s="7" t="s">
+    <row r="19">
+      <c r="A19" s="8" t="s">
         <v>137</v>
       </c>
       <c r="B19" s="1"/>
@@ -1885,43 +1834,43 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A20" s="10" t="s">
+    <row r="20">
+      <c r="A20" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="H20" s="11" t="s">
+      <c r="H20" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="I20" s="11" t="s">
+      <c r="I20" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="J20" s="11" t="s">
+      <c r="J20" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="K20" s="11" t="s">
+      <c r="K20" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A21" s="7" t="s">
+    <row r="21">
+      <c r="A21" s="8" t="s">
         <v>139</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1955,8 +1904,8 @@
         <v>148</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A22" s="7" t="s">
+    <row r="22">
+      <c r="A22" s="8" t="s">
         <v>149</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1972,7 +1921,7 @@
         <v>152</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>153</v>
@@ -1990,8 +1939,8 @@
         <v>157</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A23" s="7" t="s">
+    <row r="23">
+      <c r="A23" s="8" t="s">
         <v>158</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -2025,8 +1974,8 @@
         <v>167</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A24" s="7" t="s">
+    <row r="24">
+      <c r="A24" s="8" t="s">
         <v>168</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -2036,67 +1985,67 @@
         <v>170</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>171</v>
       </c>
       <c r="F24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="I24" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="J24" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="K24" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="K24" s="1" t="s">
+    </row>
+    <row r="25">
+      <c r="A25" s="8" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A25" s="7" t="s">
+      <c r="B25" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="H25" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="I25" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="J25" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A26" s="7" t="s">
+    <row r="26">
+      <c r="A26" s="8" t="s">
         <v>188</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -2112,27 +2061,27 @@
         <v>192</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A27" s="7" t="s">
         <v>198</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="8" t="s">
+        <v>199</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2149,78 +2098,78 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A28" s="7" t="s">
-        <v>199</v>
+    <row r="28">
+      <c r="A28" s="8" t="s">
+        <v>200</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A29" s="7" t="s">
         <v>209</v>
       </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="8" t="s">
+        <v>210</v>
+      </c>
       <c r="B29" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>68</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>39</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A30" s="7" t="s">
+    <row r="30">
+      <c r="A30" s="8" t="s">
         <v>218</v>
       </c>
       <c r="B30" s="1"/>
@@ -2234,8 +2183,8 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A31" s="7" t="s">
+    <row r="31">
+      <c r="A31" s="8" t="s">
         <v>219</v>
       </c>
       <c r="B31" s="1"/>
@@ -2249,43 +2198,43 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A32" s="10" t="s">
+    <row r="32">
+      <c r="A32" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="F32" s="11" t="s">
+      <c r="F32" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="G32" s="11" t="s">
+      <c r="G32" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="H32" s="11" t="s">
+      <c r="H32" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="I32" s="11" t="s">
+      <c r="I32" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="J32" s="11" t="s">
+      <c r="J32" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="K32" s="11" t="s">
+      <c r="K32" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A33" s="7" t="s">
+    <row r="33">
+      <c r="A33" s="8" t="s">
         <v>221</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -2295,106 +2244,106 @@
         <v>223</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>154</v>
+        <v>224</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>179</v>
+        <v>228</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>228</v>
+        <v>189</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A34" s="7" t="s">
         <v>230</v>
       </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="8" t="s">
+        <v>231</v>
+      </c>
       <c r="B34" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>239</v>
+        <v>145</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A35" s="7" t="s">
+    <row r="35">
+      <c r="A35" s="8" t="s">
         <v>241</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="F35" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>245</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>79</v>
       </c>
       <c r="I35" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="J35" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="J35" s="1" t="s">
+      <c r="K35" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="K35" s="1" t="s">
+    </row>
+    <row r="36">
+      <c r="A36" s="8" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A36" s="7" t="s">
+      <c r="B36" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>250</v>
@@ -2406,7 +2355,7 @@
         <v>251</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>252</v>
@@ -2418,14 +2367,14 @@
         <v>254</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A37" s="7" t="s">
+    <row r="37">
+      <c r="A37" s="8" t="s">
         <v>256</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -2435,7 +2384,7 @@
         <v>258</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>259</v>
@@ -2447,59 +2396,59 @@
         <v>261</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A38" s="7" t="s">
         <v>264</v>
       </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="8" t="s">
+        <v>265</v>
+      </c>
       <c r="B38" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>253</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>252</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>269</v>
+        <v>145</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A39" s="7" t="s">
+    <row r="39">
+      <c r="A39" s="8" t="s">
         <v>271</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>272</v>
@@ -2514,7 +2463,7 @@
         <v>260</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>79</v>
@@ -2523,104 +2472,104 @@
         <v>274</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A40" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="B40" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="H40" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="I40" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="J40" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="K40" s="11" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A41" s="8" t="s">
+    </row>
+    <row r="40">
+      <c r="A40" s="7" t="s">
         <v>277</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="9" t="s">
+        <v>278</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>49</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A42" s="7"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A43" s="7"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A44" s="7"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A45" s="7"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A46" s="7"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A47" s="7"/>
+    <row r="42">
+      <c r="A42" s="8"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="8"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="8"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="8"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="8"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A20:K20"/>
-    <mergeCell ref="A32:K32"/>
-    <mergeCell ref="A40:K40"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A20:K20"/>
+    <mergeCell ref="A32:K32"/>
+    <mergeCell ref="A40:K40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Output/AllModels_sensitivitySupport_12000.xlsx
+++ b/Output/AllModels_sensitivitySupport_12000.xlsx
@@ -365,7 +365,7 @@
     <t xml:space="preserve">[0.51,   1.68]</t>
   </si>
   <si>
-    <t xml:space="preserve">Daily weartime</t>
+    <t xml:space="preserve">Daily wear time</t>
   </si>
   <si>
     <t xml:space="preserve">1.00***</t>
@@ -620,7 +620,7 @@
     <t xml:space="preserve">[0.00,   0.98]</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean weartime</t>
+    <t xml:space="preserve">Mean wear time</t>
   </si>
   <si>
     <t xml:space="preserve">Mean individual's received support</t>
